--- a/ml-models/CLEARED DATASET.xlsx
+++ b/ml-models/CLEARED DATASET.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CheNul\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CheNul\Documents\GitHub\Smart-Tea-monitoring-and-decition-support-System\ml-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869FEFC9-15B1-4866-A0CF-FB66408C2E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09CAD0F-0E59-4FED-BA74-720145394D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CFBACFB3-8F9A-45BD-9202-B77697DCE14E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="27">
   <si>
     <t xml:space="preserve">YEAR </t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t xml:space="preserve">PERU DIVISION </t>
+  </si>
+  <si>
+    <t>NDVI AVR</t>
   </si>
 </sst>
 </file>
@@ -214,11 +217,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,13 +579,15 @@
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6"/>
+      <c r="I1" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>2021</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -594,10 +599,19 @@
       <c r="E2" s="4">
         <v>222.5</v>
       </c>
+      <c r="F2">
+        <v>21.15</v>
+      </c>
+      <c r="G2">
+        <v>6.46</v>
+      </c>
+      <c r="H2">
+        <v>91.58</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
@@ -607,10 +621,19 @@
       <c r="E3" s="4">
         <v>250</v>
       </c>
+      <c r="F3">
+        <v>21.31</v>
+      </c>
+      <c r="G3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="H3">
+        <v>88.04</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
@@ -620,10 +643,19 @@
       <c r="E4" s="4">
         <v>356</v>
       </c>
+      <c r="F4">
+        <v>22.02</v>
+      </c>
+      <c r="G4">
+        <v>3.16</v>
+      </c>
+      <c r="H4">
+        <v>85.84</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
@@ -633,10 +665,19 @@
       <c r="E5" s="4">
         <v>355</v>
       </c>
+      <c r="F5">
+        <v>23.23</v>
+      </c>
+      <c r="G5">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="H5">
+        <v>83.5</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
@@ -646,10 +687,19 @@
       <c r="E6" s="4">
         <v>383</v>
       </c>
+      <c r="F6">
+        <v>23.16</v>
+      </c>
+      <c r="G6">
+        <v>7.39</v>
+      </c>
+      <c r="H6">
+        <v>87.58</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
@@ -659,10 +709,19 @@
       <c r="E7" s="4">
         <v>275</v>
       </c>
+      <c r="F7">
+        <v>22.77</v>
+      </c>
+      <c r="G7">
+        <v>2.94</v>
+      </c>
+      <c r="H7">
+        <v>84.97</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
@@ -672,10 +731,19 @@
       <c r="E8" s="4">
         <v>231</v>
       </c>
+      <c r="F8">
+        <v>22.76</v>
+      </c>
+      <c r="G8">
+        <v>3.48</v>
+      </c>
+      <c r="H8">
+        <v>84.68</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
@@ -685,10 +753,19 @@
       <c r="E9" s="4">
         <v>188</v>
       </c>
+      <c r="F9">
+        <v>22.55</v>
+      </c>
+      <c r="G9">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H9">
+        <v>84.06</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
@@ -698,10 +775,19 @@
       <c r="E10" s="4">
         <v>184</v>
       </c>
+      <c r="F10">
+        <v>22.77</v>
+      </c>
+      <c r="G10">
+        <v>2.56</v>
+      </c>
+      <c r="H10">
+        <v>84.4</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
@@ -711,10 +797,19 @@
       <c r="E11" s="4">
         <v>220</v>
       </c>
+      <c r="F11">
+        <v>22.33</v>
+      </c>
+      <c r="G11">
+        <v>8.18</v>
+      </c>
+      <c r="H11">
+        <v>87.35</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="4" t="s">
         <v>17</v>
       </c>
@@ -724,10 +819,19 @@
       <c r="E12" s="4">
         <v>131</v>
       </c>
+      <c r="F12">
+        <v>21.55</v>
+      </c>
+      <c r="G12">
+        <v>9.85</v>
+      </c>
+      <c r="H12">
+        <v>91.07</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
@@ -737,10 +841,19 @@
       <c r="E13" s="4">
         <v>223</v>
       </c>
+      <c r="F13">
+        <v>21.36</v>
+      </c>
+      <c r="G13">
+        <v>3.25</v>
+      </c>
+      <c r="H13">
+        <v>88.74</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -752,10 +865,19 @@
       <c r="E14" s="4">
         <v>226</v>
       </c>
+      <c r="F14">
+        <v>21.15</v>
+      </c>
+      <c r="G14">
+        <v>6.46</v>
+      </c>
+      <c r="H14">
+        <v>91.58</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="4" t="s">
         <v>8</v>
       </c>
@@ -765,10 +887,19 @@
       <c r="E15" s="4">
         <v>346</v>
       </c>
+      <c r="F15">
+        <v>21.31</v>
+      </c>
+      <c r="G15">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="H15">
+        <v>88.04</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="4" t="s">
         <v>9</v>
       </c>
@@ -778,10 +909,19 @@
       <c r="E16" s="4">
         <v>451</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="F16">
+        <v>22.02</v>
+      </c>
+      <c r="G16">
+        <v>3.16</v>
+      </c>
+      <c r="H16">
+        <v>85.84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="4" t="s">
         <v>10</v>
       </c>
@@ -791,10 +931,19 @@
       <c r="E17" s="4">
         <v>458</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="F17">
+        <v>23.23</v>
+      </c>
+      <c r="G17">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="H17">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="4" t="s">
         <v>11</v>
       </c>
@@ -804,10 +953,19 @@
       <c r="E18" s="4">
         <v>390</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
+      <c r="F18">
+        <v>23.16</v>
+      </c>
+      <c r="G18">
+        <v>7.39</v>
+      </c>
+      <c r="H18">
+        <v>87.58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="4" t="s">
         <v>12</v>
       </c>
@@ -817,10 +975,19 @@
       <c r="E19" s="4">
         <v>314</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+      <c r="F19">
+        <v>22.77</v>
+      </c>
+      <c r="G19">
+        <v>2.94</v>
+      </c>
+      <c r="H19">
+        <v>84.97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="4" t="s">
         <v>13</v>
       </c>
@@ -830,10 +997,19 @@
       <c r="E20" s="4">
         <v>375</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+      <c r="F20">
+        <v>22.76</v>
+      </c>
+      <c r="G20">
+        <v>3.48</v>
+      </c>
+      <c r="H20">
+        <v>84.68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="4" t="s">
         <v>14</v>
       </c>
@@ -843,10 +1019,19 @@
       <c r="E21" s="4">
         <v>288</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+      <c r="F21">
+        <v>22.55</v>
+      </c>
+      <c r="G21">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H21">
+        <v>84.06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="4" t="s">
         <v>15</v>
       </c>
@@ -856,10 +1041,19 @@
       <c r="E22" s="4">
         <v>255</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
+      <c r="F22">
+        <v>22.77</v>
+      </c>
+      <c r="G22">
+        <v>2.56</v>
+      </c>
+      <c r="H22">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="4" t="s">
         <v>16</v>
       </c>
@@ -869,10 +1063,19 @@
       <c r="E23" s="4">
         <v>265</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
+      <c r="F23">
+        <v>22.33</v>
+      </c>
+      <c r="G23">
+        <v>8.18</v>
+      </c>
+      <c r="H23">
+        <v>87.35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="4" t="s">
         <v>17</v>
       </c>
@@ -882,10 +1085,19 @@
       <c r="E24" s="4">
         <v>269</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+      <c r="F24">
+        <v>21.55</v>
+      </c>
+      <c r="G24">
+        <v>9.85</v>
+      </c>
+      <c r="H24">
+        <v>91.07</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="4" t="s">
         <v>18</v>
       </c>
@@ -895,10 +1107,19 @@
       <c r="E25" s="4">
         <v>231</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5" t="s">
+      <c r="F25">
+        <v>21.36</v>
+      </c>
+      <c r="G25">
+        <v>3.25</v>
+      </c>
+      <c r="H25">
+        <v>88.74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -910,10 +1131,19 @@
       <c r="E26" s="4">
         <v>361</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
+      <c r="F26">
+        <v>21.15</v>
+      </c>
+      <c r="G26">
+        <v>6.46</v>
+      </c>
+      <c r="H26">
+        <v>91.58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="4" t="s">
         <v>8</v>
       </c>
@@ -923,10 +1153,19 @@
       <c r="E27" s="4">
         <v>404</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
+      <c r="F27">
+        <v>21.31</v>
+      </c>
+      <c r="G27">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="H27">
+        <v>88.04</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="4" t="s">
         <v>9</v>
       </c>
@@ -936,10 +1175,19 @@
       <c r="E28" s="4">
         <v>641.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
+      <c r="F28">
+        <v>22.02</v>
+      </c>
+      <c r="G28">
+        <v>3.16</v>
+      </c>
+      <c r="H28">
+        <v>85.84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="4" t="s">
         <v>10</v>
       </c>
@@ -949,10 +1197,19 @@
       <c r="E29" s="4">
         <v>426.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
+      <c r="F29">
+        <v>23.23</v>
+      </c>
+      <c r="G29">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="H29">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="4" t="s">
         <v>11</v>
       </c>
@@ -962,10 +1219,19 @@
       <c r="E30" s="4">
         <v>588</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
+      <c r="F30">
+        <v>23.16</v>
+      </c>
+      <c r="G30">
+        <v>7.39</v>
+      </c>
+      <c r="H30">
+        <v>87.58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="4" t="s">
         <v>12</v>
       </c>
@@ -975,10 +1241,19 @@
       <c r="E31" s="4">
         <v>554.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
+      <c r="F31">
+        <v>22.77</v>
+      </c>
+      <c r="G31">
+        <v>2.94</v>
+      </c>
+      <c r="H31">
+        <v>84.97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="4" t="s">
         <v>13</v>
       </c>
@@ -988,10 +1263,19 @@
       <c r="E32" s="4">
         <v>457</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
+      <c r="F32">
+        <v>22.76</v>
+      </c>
+      <c r="G32">
+        <v>3.48</v>
+      </c>
+      <c r="H32">
+        <v>84.68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="4" t="s">
         <v>14</v>
       </c>
@@ -1001,10 +1285,19 @@
       <c r="E33" s="4">
         <v>440.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
+      <c r="F33">
+        <v>22.55</v>
+      </c>
+      <c r="G33">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H33">
+        <v>84.06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="4" t="s">
         <v>15</v>
       </c>
@@ -1014,10 +1307,19 @@
       <c r="E34" s="4">
         <v>293.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
+      <c r="F34">
+        <v>22.77</v>
+      </c>
+      <c r="G34">
+        <v>2.56</v>
+      </c>
+      <c r="H34">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
       <c r="C35" s="4" t="s">
         <v>16</v>
       </c>
@@ -1027,10 +1329,19 @@
       <c r="E35" s="4">
         <v>495.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
+      <c r="F35">
+        <v>22.33</v>
+      </c>
+      <c r="G35">
+        <v>8.18</v>
+      </c>
+      <c r="H35">
+        <v>87.35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="4" t="s">
         <v>17</v>
       </c>
@@ -1040,10 +1351,19 @@
       <c r="E36" s="4">
         <v>301.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
+      <c r="F36">
+        <v>21.55</v>
+      </c>
+      <c r="G36">
+        <v>9.85</v>
+      </c>
+      <c r="H36">
+        <v>91.07</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
       <c r="C37" s="4" t="s">
         <v>18</v>
       </c>
@@ -1053,10 +1373,19 @@
       <c r="E37" s="4">
         <v>459.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5" t="s">
+      <c r="F37">
+        <v>21.36</v>
+      </c>
+      <c r="G37">
+        <v>3.25</v>
+      </c>
+      <c r="H37">
+        <v>88.74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -1068,10 +1397,19 @@
       <c r="E38" s="4">
         <v>236</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
+      <c r="F38">
+        <v>21.15</v>
+      </c>
+      <c r="G38">
+        <v>6.46</v>
+      </c>
+      <c r="H38">
+        <v>91.58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
       <c r="C39" s="4" t="s">
         <v>8</v>
       </c>
@@ -1081,10 +1419,19 @@
       <c r="E39" s="4">
         <v>242</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
+      <c r="F39">
+        <v>21.31</v>
+      </c>
+      <c r="G39">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="H39">
+        <v>88.04</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
       <c r="C40" s="4" t="s">
         <v>9</v>
       </c>
@@ -1094,10 +1441,19 @@
       <c r="E40" s="4">
         <v>384</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
+      <c r="F40">
+        <v>22.02</v>
+      </c>
+      <c r="G40">
+        <v>3.16</v>
+      </c>
+      <c r="H40">
+        <v>85.84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
       <c r="C41" s="4" t="s">
         <v>10</v>
       </c>
@@ -1107,10 +1463,19 @@
       <c r="E41" s="4">
         <v>295</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
+      <c r="F41">
+        <v>23.23</v>
+      </c>
+      <c r="G41">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="H41">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
       <c r="C42" s="4" t="s">
         <v>11</v>
       </c>
@@ -1121,10 +1486,19 @@
         <f>363.15</f>
         <v>363.15</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
+      <c r="F42">
+        <v>23.16</v>
+      </c>
+      <c r="G42">
+        <v>7.39</v>
+      </c>
+      <c r="H42">
+        <v>87.58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
       <c r="C43" s="4" t="s">
         <v>12</v>
       </c>
@@ -1134,10 +1508,19 @@
       <c r="E43" s="4">
         <v>255</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
+      <c r="F43">
+        <v>22.77</v>
+      </c>
+      <c r="G43">
+        <v>2.94</v>
+      </c>
+      <c r="H43">
+        <v>84.97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
       <c r="C44" s="4" t="s">
         <v>13</v>
       </c>
@@ -1147,10 +1530,19 @@
       <c r="E44" s="4">
         <v>280</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
+      <c r="F44">
+        <v>22.76</v>
+      </c>
+      <c r="G44">
+        <v>3.48</v>
+      </c>
+      <c r="H44">
+        <v>84.68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
       <c r="C45" s="4" t="s">
         <v>14</v>
       </c>
@@ -1160,10 +1552,19 @@
       <c r="E45" s="4">
         <v>207</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
+      <c r="F45">
+        <v>22.55</v>
+      </c>
+      <c r="G45">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H45">
+        <v>84.06</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
       <c r="C46" s="4" t="s">
         <v>15</v>
       </c>
@@ -1173,10 +1574,19 @@
       <c r="E46" s="4">
         <v>190</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
+      <c r="F46">
+        <v>22.77</v>
+      </c>
+      <c r="G46">
+        <v>2.56</v>
+      </c>
+      <c r="H46">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
       <c r="C47" s="4" t="s">
         <v>16</v>
       </c>
@@ -1186,10 +1596,19 @@
       <c r="E47" s="4">
         <v>312</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
+      <c r="F47">
+        <v>22.33</v>
+      </c>
+      <c r="G47">
+        <v>8.18</v>
+      </c>
+      <c r="H47">
+        <v>87.35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
       <c r="C48" s="4" t="s">
         <v>17</v>
       </c>
@@ -1199,10 +1618,19 @@
       <c r="E48" s="4">
         <v>195</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
+      <c r="F48">
+        <v>21.55</v>
+      </c>
+      <c r="G48">
+        <v>9.85</v>
+      </c>
+      <c r="H48">
+        <v>91.07</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
       <c r="C49" s="4" t="s">
         <v>18</v>
       </c>
@@ -1212,10 +1640,19 @@
       <c r="E49" s="4">
         <v>314</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5" t="s">
+      <c r="F49">
+        <v>21.36</v>
+      </c>
+      <c r="G49">
+        <v>3.25</v>
+      </c>
+      <c r="H49">
+        <v>88.74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -1227,10 +1664,19 @@
       <c r="E50" s="4">
         <v>274</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
+      <c r="F50">
+        <v>21.15</v>
+      </c>
+      <c r="G50">
+        <v>6.46</v>
+      </c>
+      <c r="H50">
+        <v>91.58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
       <c r="C51" s="4" t="s">
         <v>8</v>
       </c>
@@ -1240,10 +1686,19 @@
       <c r="E51" s="4">
         <v>418</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
+      <c r="F51">
+        <v>21.31</v>
+      </c>
+      <c r="G51">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="H51">
+        <v>88.04</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
       <c r="C52" s="4" t="s">
         <v>9</v>
       </c>
@@ -1253,10 +1708,19 @@
       <c r="E52" s="4">
         <v>607</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
+      <c r="F52">
+        <v>22.02</v>
+      </c>
+      <c r="G52">
+        <v>3.16</v>
+      </c>
+      <c r="H52">
+        <v>85.84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
       <c r="C53" s="4" t="s">
         <v>10</v>
       </c>
@@ -1266,10 +1730,19 @@
       <c r="E53" s="4">
         <v>435</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
+      <c r="F53">
+        <v>23.23</v>
+      </c>
+      <c r="G53">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="H53">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
       <c r="C54" s="4" t="s">
         <v>11</v>
       </c>
@@ -1279,10 +1752,19 @@
       <c r="E54" s="4">
         <v>603</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
+      <c r="F54">
+        <v>23.16</v>
+      </c>
+      <c r="G54">
+        <v>7.39</v>
+      </c>
+      <c r="H54">
+        <v>87.58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
       <c r="C55" s="4" t="s">
         <v>12</v>
       </c>
@@ -1292,10 +1774,19 @@
       <c r="E55" s="4">
         <v>426</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
+      <c r="F55">
+        <v>22.77</v>
+      </c>
+      <c r="G55">
+        <v>2.94</v>
+      </c>
+      <c r="H55">
+        <v>84.97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
       <c r="C56" s="4" t="s">
         <v>13</v>
       </c>
@@ -1305,10 +1796,19 @@
       <c r="E56" s="4">
         <v>393</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
+      <c r="F56">
+        <v>22.76</v>
+      </c>
+      <c r="G56">
+        <v>3.48</v>
+      </c>
+      <c r="H56">
+        <v>84.68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
       <c r="C57" s="4" t="s">
         <v>14</v>
       </c>
@@ -1318,10 +1818,19 @@
       <c r="E57" s="4">
         <v>371</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
+      <c r="F57">
+        <v>22.55</v>
+      </c>
+      <c r="G57">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H57">
+        <v>84.06</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
       <c r="C58" s="4" t="s">
         <v>15</v>
       </c>
@@ -1331,10 +1840,19 @@
       <c r="E58" s="4">
         <v>339</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
+      <c r="F58">
+        <v>22.77</v>
+      </c>
+      <c r="G58">
+        <v>2.56</v>
+      </c>
+      <c r="H58">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
       <c r="C59" s="4" t="s">
         <v>16</v>
       </c>
@@ -1344,10 +1862,19 @@
       <c r="E59" s="4">
         <v>479</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
+      <c r="F59">
+        <v>22.33</v>
+      </c>
+      <c r="G59">
+        <v>8.18</v>
+      </c>
+      <c r="H59">
+        <v>87.35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
       <c r="C60" s="4" t="s">
         <v>17</v>
       </c>
@@ -1357,10 +1884,19 @@
       <c r="E60" s="4">
         <v>328</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
+      <c r="F60">
+        <v>21.55</v>
+      </c>
+      <c r="G60">
+        <v>9.85</v>
+      </c>
+      <c r="H60">
+        <v>91.07</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
       <c r="C61" s="4" t="s">
         <v>18</v>
       </c>
@@ -1370,10 +1906,19 @@
       <c r="E61" s="4">
         <v>443</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5" t="s">
+      <c r="F61">
+        <v>21.36</v>
+      </c>
+      <c r="G61">
+        <v>3.25</v>
+      </c>
+      <c r="H61">
+        <v>88.74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -1385,10 +1930,19 @@
       <c r="E62" s="4">
         <v>204</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
+      <c r="F62">
+        <v>21.15</v>
+      </c>
+      <c r="G62">
+        <v>6.46</v>
+      </c>
+      <c r="H62">
+        <v>91.58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
       <c r="C63" s="4" t="s">
         <v>8</v>
       </c>
@@ -1398,10 +1952,19 @@
       <c r="E63" s="4">
         <v>291</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
+      <c r="F63">
+        <v>21.31</v>
+      </c>
+      <c r="G63">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="H63">
+        <v>88.04</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
       <c r="C64" s="4" t="s">
         <v>9</v>
       </c>
@@ -1411,10 +1974,19 @@
       <c r="E64" s="4">
         <v>362</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
+      <c r="F64">
+        <v>22.02</v>
+      </c>
+      <c r="G64">
+        <v>3.16</v>
+      </c>
+      <c r="H64">
+        <v>85.84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
       <c r="C65" s="4" t="s">
         <v>10</v>
       </c>
@@ -1424,10 +1996,19 @@
       <c r="E65" s="4">
         <v>233</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
+      <c r="F65">
+        <v>23.23</v>
+      </c>
+      <c r="G65">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="H65">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
       <c r="C66" s="4" t="s">
         <v>11</v>
       </c>
@@ -1437,10 +2018,19 @@
       <c r="E66" s="4">
         <v>317</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
+      <c r="F66">
+        <v>23.16</v>
+      </c>
+      <c r="G66">
+        <v>7.39</v>
+      </c>
+      <c r="H66">
+        <v>87.58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
       <c r="C67" s="4" t="s">
         <v>12</v>
       </c>
@@ -1450,10 +2040,19 @@
       <c r="E67" s="4">
         <v>224</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
+      <c r="F67">
+        <v>22.77</v>
+      </c>
+      <c r="G67">
+        <v>2.94</v>
+      </c>
+      <c r="H67">
+        <v>84.97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
       <c r="C68" s="4" t="s">
         <v>13</v>
       </c>
@@ -1463,10 +2062,19 @@
       <c r="E68" s="4">
         <v>175</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
+      <c r="F68">
+        <v>22.76</v>
+      </c>
+      <c r="G68">
+        <v>3.48</v>
+      </c>
+      <c r="H68">
+        <v>84.68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
       <c r="C69" s="4" t="s">
         <v>14</v>
       </c>
@@ -1476,10 +2084,19 @@
       <c r="E69" s="4">
         <v>136</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
+      <c r="F69">
+        <v>22.55</v>
+      </c>
+      <c r="G69">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H69">
+        <v>84.06</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
       <c r="C70" s="4" t="s">
         <v>15</v>
       </c>
@@ -1489,10 +2106,19 @@
       <c r="E70" s="4">
         <v>138</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
+      <c r="F70">
+        <v>22.77</v>
+      </c>
+      <c r="G70">
+        <v>2.56</v>
+      </c>
+      <c r="H70">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
       <c r="C71" s="4" t="s">
         <v>16</v>
       </c>
@@ -1502,10 +2128,19 @@
       <c r="E71" s="4">
         <v>192</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
+      <c r="F71">
+        <v>22.33</v>
+      </c>
+      <c r="G71">
+        <v>8.18</v>
+      </c>
+      <c r="H71">
+        <v>87.35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
       <c r="C72" s="4" t="s">
         <v>17</v>
       </c>
@@ -1515,10 +2150,19 @@
       <c r="E72" s="4">
         <v>153</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
+      <c r="F72">
+        <v>21.55</v>
+      </c>
+      <c r="G72">
+        <v>9.85</v>
+      </c>
+      <c r="H72">
+        <v>91.07</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
       <c r="C73" s="4" t="s">
         <v>18</v>
       </c>
@@ -1528,12 +2172,21 @@
       <c r="E73" s="4">
         <v>176</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="5">
+      <c r="F73">
+        <v>21.36</v>
+      </c>
+      <c r="G73">
+        <v>3.25</v>
+      </c>
+      <c r="H73">
+        <v>88.74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="6">
         <v>2022</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -1545,10 +2198,19 @@
       <c r="E74" s="4">
         <v>193</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
+      <c r="F74">
+        <v>21.22</v>
+      </c>
+      <c r="G74">
+        <v>2.76</v>
+      </c>
+      <c r="H74">
+        <v>85.97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
       <c r="C75" s="4" t="s">
         <v>8</v>
       </c>
@@ -1558,10 +2220,19 @@
       <c r="E75" s="4">
         <v>185</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
+      <c r="F75">
+        <v>21.34</v>
+      </c>
+      <c r="G75">
+        <v>2.42</v>
+      </c>
+      <c r="H75">
+        <v>85.39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
       <c r="C76" s="4" t="s">
         <v>9</v>
       </c>
@@ -1571,10 +2242,19 @@
       <c r="E76" s="4">
         <v>203</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
+      <c r="F76">
+        <v>22.74</v>
+      </c>
+      <c r="G76">
+        <v>2.29</v>
+      </c>
+      <c r="H76">
+        <v>84.13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
       <c r="C77" s="4" t="s">
         <v>10</v>
       </c>
@@ -1584,10 +2264,19 @@
       <c r="E77" s="4">
         <v>247</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
+      <c r="F77">
+        <v>22.79</v>
+      </c>
+      <c r="G77">
+        <v>9.75</v>
+      </c>
+      <c r="H77">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
       <c r="C78" s="4" t="s">
         <v>11</v>
       </c>
@@ -1597,10 +2286,19 @@
       <c r="E78" s="4">
         <v>282</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
+      <c r="F78">
+        <v>23.17</v>
+      </c>
+      <c r="G78">
+        <v>3.16</v>
+      </c>
+      <c r="H78">
+        <v>86.19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
       <c r="C79" s="4" t="s">
         <v>12</v>
       </c>
@@ -1610,10 +2308,19 @@
       <c r="E79" s="4">
         <v>187</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
+      <c r="F79">
+        <v>22.93</v>
+      </c>
+      <c r="G79">
+        <v>1.83</v>
+      </c>
+      <c r="H79">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
       <c r="C80" s="4" t="s">
         <v>13</v>
       </c>
@@ -1623,10 +2330,19 @@
       <c r="E80" s="4">
         <v>165.5</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
+      <c r="F80">
+        <v>22.61</v>
+      </c>
+      <c r="G80">
+        <v>4.78</v>
+      </c>
+      <c r="H80">
+        <v>83.71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
       <c r="C81" s="4" t="s">
         <v>14</v>
       </c>
@@ -1636,10 +2352,19 @@
       <c r="E81" s="4">
         <v>117</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
+      <c r="F81">
+        <v>22.17</v>
+      </c>
+      <c r="G81">
+        <v>3.63</v>
+      </c>
+      <c r="H81">
+        <v>85.94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
       <c r="C82" s="4" t="s">
         <v>15</v>
       </c>
@@ -1649,10 +2374,19 @@
       <c r="E82" s="4">
         <v>193</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
+      <c r="F82">
+        <v>22.33</v>
+      </c>
+      <c r="G82">
+        <v>1.48</v>
+      </c>
+      <c r="H82">
+        <v>83.97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
       <c r="C83" s="4" t="s">
         <v>16</v>
       </c>
@@ -1662,10 +2396,19 @@
       <c r="E83" s="4">
         <v>191</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
+      <c r="F83">
+        <v>21.69</v>
+      </c>
+      <c r="G83">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="H83">
+        <v>89.16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
       <c r="C84" s="4" t="s">
         <v>17</v>
       </c>
@@ -1675,10 +2418,19 @@
       <c r="E84" s="4">
         <v>205</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
+      <c r="F84">
+        <v>21.39</v>
+      </c>
+      <c r="G84">
+        <v>5.44</v>
+      </c>
+      <c r="H84">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
       <c r="C85" s="4" t="s">
         <v>18</v>
       </c>
@@ -1688,10 +2440,19 @@
       <c r="E85" s="4">
         <v>284</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5" t="s">
+      <c r="F85">
+        <v>20.87</v>
+      </c>
+      <c r="G85">
+        <v>6.62</v>
+      </c>
+      <c r="H85">
+        <v>88.97</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C86" s="4" t="s">
@@ -1703,10 +2464,19 @@
       <c r="E86" s="4">
         <v>336</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
+      <c r="F86">
+        <v>21.22</v>
+      </c>
+      <c r="G86">
+        <v>2.76</v>
+      </c>
+      <c r="H86">
+        <v>85.97</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
       <c r="C87" s="4" t="s">
         <v>8</v>
       </c>
@@ -1716,10 +2486,19 @@
       <c r="E87" s="4">
         <v>172</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
+      <c r="F87">
+        <v>21.34</v>
+      </c>
+      <c r="G87">
+        <v>2.42</v>
+      </c>
+      <c r="H87">
+        <v>85.39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
       <c r="C88" s="4" t="s">
         <v>9</v>
       </c>
@@ -1729,10 +2508,19 @@
       <c r="E88" s="4">
         <v>310</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
+      <c r="F88">
+        <v>22.74</v>
+      </c>
+      <c r="G88">
+        <v>2.29</v>
+      </c>
+      <c r="H88">
+        <v>84.13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
       <c r="C89" s="4" t="s">
         <v>10</v>
       </c>
@@ -1742,10 +2530,19 @@
       <c r="E89" s="4">
         <v>243</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
+      <c r="F89">
+        <v>22.79</v>
+      </c>
+      <c r="G89">
+        <v>9.75</v>
+      </c>
+      <c r="H89">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
       <c r="C90" s="4" t="s">
         <v>11</v>
       </c>
@@ -1755,10 +2552,19 @@
       <c r="E90" s="4">
         <v>326</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
+      <c r="F90">
+        <v>23.17</v>
+      </c>
+      <c r="G90">
+        <v>3.16</v>
+      </c>
+      <c r="H90">
+        <v>86.19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
       <c r="C91" s="4" t="s">
         <v>12</v>
       </c>
@@ -1768,10 +2574,19 @@
       <c r="E91" s="4">
         <v>212</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
+      <c r="F91">
+        <v>22.93</v>
+      </c>
+      <c r="G91">
+        <v>1.83</v>
+      </c>
+      <c r="H91">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
       <c r="C92" s="4" t="s">
         <v>13</v>
       </c>
@@ -1781,10 +2596,19 @@
       <c r="E92" s="4">
         <v>218</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
+      <c r="F92">
+        <v>22.61</v>
+      </c>
+      <c r="G92">
+        <v>4.78</v>
+      </c>
+      <c r="H92">
+        <v>83.71</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
       <c r="C93" s="4" t="s">
         <v>14</v>
       </c>
@@ -1794,10 +2618,19 @@
       <c r="E93" s="4">
         <v>156</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
+      <c r="F93">
+        <v>22.17</v>
+      </c>
+      <c r="G93">
+        <v>3.63</v>
+      </c>
+      <c r="H93">
+        <v>85.94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
       <c r="C94" s="4" t="s">
         <v>15</v>
       </c>
@@ -1807,10 +2640,19 @@
       <c r="E94" s="4">
         <v>236</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
+      <c r="F94">
+        <v>22.33</v>
+      </c>
+      <c r="G94">
+        <v>1.48</v>
+      </c>
+      <c r="H94">
+        <v>83.97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
       <c r="C95" s="4" t="s">
         <v>16</v>
       </c>
@@ -1820,10 +2662,19 @@
       <c r="E95" s="4">
         <v>219</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
+      <c r="F95">
+        <v>21.69</v>
+      </c>
+      <c r="G95">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="H95">
+        <v>89.16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
       <c r="C96" s="4" t="s">
         <v>17</v>
       </c>
@@ -1833,10 +2684,19 @@
       <c r="E96" s="4">
         <v>227.5</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
+      <c r="F96">
+        <v>21.39</v>
+      </c>
+      <c r="G96">
+        <v>5.44</v>
+      </c>
+      <c r="H96">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
       <c r="C97" s="4" t="s">
         <v>18</v>
       </c>
@@ -1846,10 +2706,19 @@
       <c r="E97" s="4">
         <v>256.5</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5" t="s">
+      <c r="F97">
+        <v>20.87</v>
+      </c>
+      <c r="G97">
+        <v>6.62</v>
+      </c>
+      <c r="H97">
+        <v>88.97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C98" s="4" t="s">
@@ -1861,10 +2730,19 @@
       <c r="E98" s="4">
         <v>562</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
+      <c r="F98">
+        <v>21.22</v>
+      </c>
+      <c r="G98">
+        <v>2.76</v>
+      </c>
+      <c r="H98">
+        <v>85.97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
       <c r="C99" s="4" t="s">
         <v>8</v>
       </c>
@@ -1875,10 +2753,19 @@
         <f>482-13</f>
         <v>469</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
+      <c r="F99">
+        <v>21.34</v>
+      </c>
+      <c r="G99">
+        <v>2.42</v>
+      </c>
+      <c r="H99">
+        <v>85.39</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
       <c r="C100" s="4" t="s">
         <v>9</v>
       </c>
@@ -1888,10 +2775,19 @@
       <c r="E100" s="4">
         <v>536</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
+      <c r="F100">
+        <v>22.74</v>
+      </c>
+      <c r="G100">
+        <v>2.29</v>
+      </c>
+      <c r="H100">
+        <v>84.13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
       <c r="C101" s="4" t="s">
         <v>10</v>
       </c>
@@ -1901,10 +2797,19 @@
       <c r="E101" s="4">
         <v>497.05</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
+      <c r="F101">
+        <v>22.79</v>
+      </c>
+      <c r="G101">
+        <v>9.75</v>
+      </c>
+      <c r="H101">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
       <c r="C102" s="4" t="s">
         <v>11</v>
       </c>
@@ -1914,10 +2819,19 @@
       <c r="E102" s="4">
         <v>525</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
+      <c r="F102">
+        <v>23.17</v>
+      </c>
+      <c r="G102">
+        <v>3.16</v>
+      </c>
+      <c r="H102">
+        <v>86.19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
       <c r="C103" s="4" t="s">
         <v>12</v>
       </c>
@@ -1927,10 +2841,19 @@
       <c r="E103" s="4">
         <v>320</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
+      <c r="F103">
+        <v>22.93</v>
+      </c>
+      <c r="G103">
+        <v>1.83</v>
+      </c>
+      <c r="H103">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
       <c r="C104" s="4" t="s">
         <v>13</v>
       </c>
@@ -1940,10 +2863,19 @@
       <c r="E104" s="4">
         <v>280.5</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
+      <c r="F104">
+        <v>22.61</v>
+      </c>
+      <c r="G104">
+        <v>4.78</v>
+      </c>
+      <c r="H104">
+        <v>83.71</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
       <c r="C105" s="4" t="s">
         <v>14</v>
       </c>
@@ -1953,10 +2885,19 @@
       <c r="E105" s="4">
         <v>228</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
+      <c r="F105">
+        <v>22.17</v>
+      </c>
+      <c r="G105">
+        <v>3.63</v>
+      </c>
+      <c r="H105">
+        <v>85.94</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
       <c r="C106" s="4" t="s">
         <v>15</v>
       </c>
@@ -1966,10 +2907,19 @@
       <c r="E106" s="4">
         <v>441</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
+      <c r="F106">
+        <v>22.33</v>
+      </c>
+      <c r="G106">
+        <v>1.48</v>
+      </c>
+      <c r="H106">
+        <v>83.97</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
       <c r="C107" s="4" t="s">
         <v>16</v>
       </c>
@@ -1979,10 +2929,19 @@
       <c r="E107" s="4">
         <v>252.5</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
+      <c r="F107">
+        <v>21.69</v>
+      </c>
+      <c r="G107">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="H107">
+        <v>89.16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
       <c r="C108" s="4" t="s">
         <v>17</v>
       </c>
@@ -1992,10 +2951,19 @@
       <c r="E108" s="4">
         <v>291.5</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
+      <c r="F108">
+        <v>21.39</v>
+      </c>
+      <c r="G108">
+        <v>5.44</v>
+      </c>
+      <c r="H108">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
       <c r="C109" s="4" t="s">
         <v>18</v>
       </c>
@@ -2005,10 +2973,19 @@
       <c r="E109" s="4">
         <v>438</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5" t="s">
+      <c r="F109">
+        <v>20.87</v>
+      </c>
+      <c r="G109">
+        <v>6.62</v>
+      </c>
+      <c r="H109">
+        <v>88.97</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="6"/>
+      <c r="B110" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C110" s="4" t="s">
@@ -2020,10 +2997,19 @@
       <c r="E110" s="4">
         <v>316</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
+      <c r="F110">
+        <v>21.22</v>
+      </c>
+      <c r="G110">
+        <v>2.76</v>
+      </c>
+      <c r="H110">
+        <v>85.97</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
       <c r="C111" s="4" t="s">
         <v>8</v>
       </c>
@@ -2033,10 +3019,19 @@
       <c r="E111" s="4">
         <v>238</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
+      <c r="F111">
+        <v>21.34</v>
+      </c>
+      <c r="G111">
+        <v>2.42</v>
+      </c>
+      <c r="H111">
+        <v>85.39</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
       <c r="C112" s="4" t="s">
         <v>9</v>
       </c>
@@ -2046,10 +3041,19 @@
       <c r="E112" s="4">
         <v>333</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
+      <c r="F112">
+        <v>22.74</v>
+      </c>
+      <c r="G112">
+        <v>2.29</v>
+      </c>
+      <c r="H112">
+        <v>84.13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="6"/>
+      <c r="B113" s="6"/>
       <c r="C113" s="4" t="s">
         <v>10</v>
       </c>
@@ -2059,10 +3063,19 @@
       <c r="E113" s="4">
         <v>282</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="5"/>
-      <c r="B114" s="5"/>
+      <c r="F113">
+        <v>22.79</v>
+      </c>
+      <c r="G113">
+        <v>9.75</v>
+      </c>
+      <c r="H113">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="6"/>
+      <c r="B114" s="6"/>
       <c r="C114" s="4" t="s">
         <v>11</v>
       </c>
@@ -2072,10 +3085,19 @@
       <c r="E114" s="4">
         <v>330</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="5"/>
-      <c r="B115" s="5"/>
+      <c r="F114">
+        <v>23.17</v>
+      </c>
+      <c r="G114">
+        <v>3.16</v>
+      </c>
+      <c r="H114">
+        <v>86.19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
       <c r="C115" s="4" t="s">
         <v>12</v>
       </c>
@@ -2085,10 +3107,19 @@
       <c r="E115" s="4">
         <v>189</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
+      <c r="F115">
+        <v>22.93</v>
+      </c>
+      <c r="G115">
+        <v>1.83</v>
+      </c>
+      <c r="H115">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
       <c r="C116" s="4" t="s">
         <v>13</v>
       </c>
@@ -2098,10 +3129,19 @@
       <c r="E116" s="4">
         <v>184.5</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
+      <c r="F116">
+        <v>22.61</v>
+      </c>
+      <c r="G116">
+        <v>4.78</v>
+      </c>
+      <c r="H116">
+        <v>83.71</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
       <c r="C117" s="4" t="s">
         <v>14</v>
       </c>
@@ -2111,10 +3151,19 @@
       <c r="E117" s="4">
         <v>124</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
+      <c r="F117">
+        <v>22.17</v>
+      </c>
+      <c r="G117">
+        <v>3.63</v>
+      </c>
+      <c r="H117">
+        <v>85.94</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
       <c r="C118" s="4" t="s">
         <v>15</v>
       </c>
@@ -2124,10 +3173,19 @@
       <c r="E118" s="4">
         <v>167</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="5"/>
-      <c r="B119" s="5"/>
+      <c r="F118">
+        <v>22.33</v>
+      </c>
+      <c r="G118">
+        <v>1.48</v>
+      </c>
+      <c r="H118">
+        <v>83.97</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
       <c r="C119" s="4" t="s">
         <v>16</v>
       </c>
@@ -2137,10 +3195,19 @@
       <c r="E119" s="4">
         <v>144</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="5"/>
-      <c r="B120" s="5"/>
+      <c r="F119">
+        <v>21.69</v>
+      </c>
+      <c r="G119">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="H119">
+        <v>89.16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
       <c r="C120" s="4" t="s">
         <v>17</v>
       </c>
@@ -2150,10 +3217,19 @@
       <c r="E120" s="4">
         <v>187</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="5"/>
-      <c r="B121" s="5"/>
+      <c r="F120">
+        <v>21.39</v>
+      </c>
+      <c r="G120">
+        <v>5.44</v>
+      </c>
+      <c r="H120">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="6"/>
+      <c r="B121" s="6"/>
       <c r="C121" s="4" t="s">
         <v>18</v>
       </c>
@@ -2163,10 +3239,19 @@
       <c r="E121" s="4">
         <v>262.5</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5" t="s">
+      <c r="F121">
+        <v>20.87</v>
+      </c>
+      <c r="G121">
+        <v>6.62</v>
+      </c>
+      <c r="H121">
+        <v>88.97</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="6"/>
+      <c r="B122" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C122" s="4" t="s">
@@ -2178,10 +3263,19 @@
       <c r="E122" s="4">
         <v>432</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
+      <c r="F122">
+        <v>21.22</v>
+      </c>
+      <c r="G122">
+        <v>2.76</v>
+      </c>
+      <c r="H122">
+        <v>85.97</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
       <c r="C123" s="4" t="s">
         <v>8</v>
       </c>
@@ -2191,10 +3285,19 @@
       <c r="E123" s="4">
         <v>396</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
+      <c r="F123">
+        <v>21.34</v>
+      </c>
+      <c r="G123">
+        <v>2.42</v>
+      </c>
+      <c r="H123">
+        <v>85.39</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
       <c r="C124" s="4" t="s">
         <v>9</v>
       </c>
@@ -2204,10 +3307,19 @@
       <c r="E124" s="4">
         <v>466</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
+      <c r="F124">
+        <v>22.74</v>
+      </c>
+      <c r="G124">
+        <v>2.29</v>
+      </c>
+      <c r="H124">
+        <v>84.13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="6"/>
+      <c r="B125" s="6"/>
       <c r="C125" s="4" t="s">
         <v>10</v>
       </c>
@@ -2217,10 +3329,19 @@
       <c r="E125" s="4">
         <v>354</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
+      <c r="F125">
+        <v>22.79</v>
+      </c>
+      <c r="G125">
+        <v>9.75</v>
+      </c>
+      <c r="H125">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="6"/>
+      <c r="B126" s="6"/>
       <c r="C126" s="4" t="s">
         <v>11</v>
       </c>
@@ -2230,10 +3351,19 @@
       <c r="E126" s="4">
         <v>407</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
+      <c r="F126">
+        <v>23.17</v>
+      </c>
+      <c r="G126">
+        <v>3.16</v>
+      </c>
+      <c r="H126">
+        <v>86.19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
       <c r="C127" s="4" t="s">
         <v>12</v>
       </c>
@@ -2243,10 +3373,19 @@
       <c r="E127" s="4">
         <v>152</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5"/>
+      <c r="F127">
+        <v>22.93</v>
+      </c>
+      <c r="G127">
+        <v>1.83</v>
+      </c>
+      <c r="H127">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="6"/>
+      <c r="B128" s="6"/>
       <c r="C128" s="4" t="s">
         <v>13</v>
       </c>
@@ -2256,10 +3395,19 @@
       <c r="E128" s="4">
         <v>244.5</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
+      <c r="F128">
+        <v>22.61</v>
+      </c>
+      <c r="G128">
+        <v>4.78</v>
+      </c>
+      <c r="H128">
+        <v>83.71</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="6"/>
+      <c r="B129" s="6"/>
       <c r="C129" s="4" t="s">
         <v>14</v>
       </c>
@@ -2269,10 +3417,19 @@
       <c r="E129" s="4">
         <v>116</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
+      <c r="F129">
+        <v>22.17</v>
+      </c>
+      <c r="G129">
+        <v>3.63</v>
+      </c>
+      <c r="H129">
+        <v>85.94</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
       <c r="C130" s="4" t="s">
         <v>15</v>
       </c>
@@ -2282,10 +3439,19 @@
       <c r="E130" s="4">
         <v>275</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
+      <c r="F130">
+        <v>22.33</v>
+      </c>
+      <c r="G130">
+        <v>1.48</v>
+      </c>
+      <c r="H130">
+        <v>83.97</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="6"/>
+      <c r="B131" s="6"/>
       <c r="C131" s="4" t="s">
         <v>16</v>
       </c>
@@ -2295,10 +3461,19 @@
       <c r="E131" s="4">
         <v>165.5</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
+      <c r="F131">
+        <v>21.69</v>
+      </c>
+      <c r="G131">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="H131">
+        <v>89.16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="6"/>
+      <c r="B132" s="6"/>
       <c r="C132" s="4" t="s">
         <v>17</v>
       </c>
@@ -2308,10 +3483,19 @@
       <c r="E132" s="4">
         <v>260.5</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="5"/>
-      <c r="B133" s="5"/>
+      <c r="F132">
+        <v>21.39</v>
+      </c>
+      <c r="G132">
+        <v>5.44</v>
+      </c>
+      <c r="H132">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="6"/>
+      <c r="B133" s="6"/>
       <c r="C133" s="4" t="s">
         <v>18</v>
       </c>
@@ -2321,10 +3505,19 @@
       <c r="E133" s="4">
         <v>251.5</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="5"/>
-      <c r="B134" s="5" t="s">
+      <c r="F133">
+        <v>20.87</v>
+      </c>
+      <c r="G133">
+        <v>6.62</v>
+      </c>
+      <c r="H133">
+        <v>88.97</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="6"/>
+      <c r="B134" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C134" s="4" t="s">
@@ -2336,10 +3529,19 @@
       <c r="E134" s="4">
         <v>188</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="5"/>
-      <c r="B135" s="5"/>
+      <c r="F134">
+        <v>21.22</v>
+      </c>
+      <c r="G134">
+        <v>2.76</v>
+      </c>
+      <c r="H134">
+        <v>85.97</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="6"/>
+      <c r="B135" s="6"/>
       <c r="C135" s="4" t="s">
         <v>8</v>
       </c>
@@ -2349,10 +3551,19 @@
       <c r="E135" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
+      <c r="F135">
+        <v>21.34</v>
+      </c>
+      <c r="G135">
+        <v>2.42</v>
+      </c>
+      <c r="H135">
+        <v>85.39</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="6"/>
+      <c r="B136" s="6"/>
       <c r="C136" s="4" t="s">
         <v>9</v>
       </c>
@@ -2362,10 +3573,19 @@
       <c r="E136" s="4">
         <v>239</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="5"/>
-      <c r="B137" s="5"/>
+      <c r="F136">
+        <v>22.74</v>
+      </c>
+      <c r="G136">
+        <v>2.29</v>
+      </c>
+      <c r="H136">
+        <v>84.13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="6"/>
+      <c r="B137" s="6"/>
       <c r="C137" s="4" t="s">
         <v>10</v>
       </c>
@@ -2375,10 +3595,19 @@
       <c r="E137" s="4">
         <v>124</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
+      <c r="F137">
+        <v>22.79</v>
+      </c>
+      <c r="G137">
+        <v>9.75</v>
+      </c>
+      <c r="H137">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="6"/>
+      <c r="B138" s="6"/>
       <c r="C138" s="4" t="s">
         <v>11</v>
       </c>
@@ -2388,10 +3617,19 @@
       <c r="E138" s="4">
         <v>189</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="5"/>
-      <c r="B139" s="5"/>
+      <c r="F138">
+        <v>23.17</v>
+      </c>
+      <c r="G138">
+        <v>3.16</v>
+      </c>
+      <c r="H138">
+        <v>86.19</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="6"/>
+      <c r="B139" s="6"/>
       <c r="C139" s="4" t="s">
         <v>12</v>
       </c>
@@ -2401,10 +3639,19 @@
       <c r="E139" s="4">
         <v>97</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="5"/>
-      <c r="B140" s="5"/>
+      <c r="F139">
+        <v>22.93</v>
+      </c>
+      <c r="G139">
+        <v>1.83</v>
+      </c>
+      <c r="H139">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="6"/>
+      <c r="B140" s="6"/>
       <c r="C140" s="4" t="s">
         <v>13</v>
       </c>
@@ -2414,10 +3661,19 @@
       <c r="E140" s="4">
         <v>53</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="5"/>
-      <c r="B141" s="5"/>
+      <c r="F140">
+        <v>22.61</v>
+      </c>
+      <c r="G140">
+        <v>4.78</v>
+      </c>
+      <c r="H140">
+        <v>83.71</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="6"/>
+      <c r="B141" s="6"/>
       <c r="C141" s="4" t="s">
         <v>14</v>
       </c>
@@ -2427,10 +3683,19 @@
       <c r="E141" s="4">
         <v>65.5</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="5"/>
-      <c r="B142" s="5"/>
+      <c r="F141">
+        <v>22.17</v>
+      </c>
+      <c r="G141">
+        <v>3.63</v>
+      </c>
+      <c r="H141">
+        <v>85.94</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" s="6"/>
+      <c r="B142" s="6"/>
       <c r="C142" s="4" t="s">
         <v>15</v>
       </c>
@@ -2440,10 +3705,19 @@
       <c r="E142" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="5"/>
-      <c r="B143" s="5"/>
+      <c r="F142">
+        <v>22.33</v>
+      </c>
+      <c r="G142">
+        <v>1.48</v>
+      </c>
+      <c r="H142">
+        <v>83.97</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" s="6"/>
+      <c r="B143" s="6"/>
       <c r="C143" s="4" t="s">
         <v>16</v>
       </c>
@@ -2453,10 +3727,19 @@
       <c r="E143" s="4">
         <v>149.5</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="5"/>
-      <c r="B144" s="5"/>
+      <c r="F143">
+        <v>21.69</v>
+      </c>
+      <c r="G143">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="H143">
+        <v>89.16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="6"/>
+      <c r="B144" s="6"/>
       <c r="C144" s="4" t="s">
         <v>17</v>
       </c>
@@ -2466,10 +3749,19 @@
       <c r="E144" s="4">
         <v>122</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="5"/>
-      <c r="B145" s="5"/>
+      <c r="F144">
+        <v>21.39</v>
+      </c>
+      <c r="G144">
+        <v>5.44</v>
+      </c>
+      <c r="H144">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="6"/>
+      <c r="B145" s="6"/>
       <c r="C145" s="4" t="s">
         <v>18</v>
       </c>
@@ -2479,12 +3771,21 @@
       <c r="E145" s="4">
         <v>230</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="5">
+      <c r="F145">
+        <v>20.87</v>
+      </c>
+      <c r="G145">
+        <v>6.62</v>
+      </c>
+      <c r="H145">
+        <v>88.97</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="6">
         <v>2023</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C146" s="4" t="s">
@@ -2496,10 +3797,19 @@
       <c r="E146" s="4">
         <v>163</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="5"/>
-      <c r="B147" s="5"/>
+      <c r="F146">
+        <v>20.09</v>
+      </c>
+      <c r="G146">
+        <v>2.86</v>
+      </c>
+      <c r="H146">
+        <v>88.87</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" s="6"/>
+      <c r="B147" s="6"/>
       <c r="C147" s="4" t="s">
         <v>8</v>
       </c>
@@ -2509,10 +3819,19 @@
       <c r="E147" s="4">
         <v>261.5</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="5"/>
-      <c r="B148" s="5"/>
+      <c r="F147">
+        <v>20.94</v>
+      </c>
+      <c r="G147">
+        <v>2.86</v>
+      </c>
+      <c r="H147">
+        <v>88.82</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="6"/>
+      <c r="B148" s="6"/>
       <c r="C148" s="4" t="s">
         <v>9</v>
       </c>
@@ -2522,10 +3841,19 @@
       <c r="E148" s="4">
         <v>262</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="5"/>
-      <c r="B149" s="5"/>
+      <c r="F148">
+        <v>22.05</v>
+      </c>
+      <c r="G148">
+        <v>2.86</v>
+      </c>
+      <c r="H148">
+        <v>88.13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" s="6"/>
+      <c r="B149" s="6"/>
       <c r="C149" s="4" t="s">
         <v>10</v>
       </c>
@@ -2535,10 +3863,19 @@
       <c r="E149" s="4">
         <v>244</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="5"/>
-      <c r="B150" s="5"/>
+      <c r="F149">
+        <v>23.42</v>
+      </c>
+      <c r="G149">
+        <v>2.86</v>
+      </c>
+      <c r="H149">
+        <v>83.87</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" s="6"/>
+      <c r="B150" s="6"/>
       <c r="C150" s="4" t="s">
         <v>11</v>
       </c>
@@ -2548,10 +3885,19 @@
       <c r="E150" s="4">
         <v>280.5</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="5"/>
-      <c r="B151" s="5"/>
+      <c r="F150">
+        <v>23.48</v>
+      </c>
+      <c r="G150">
+        <v>2.86</v>
+      </c>
+      <c r="H150">
+        <v>87.23</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" s="6"/>
+      <c r="B151" s="6"/>
       <c r="C151" s="4" t="s">
         <v>12</v>
       </c>
@@ -2561,10 +3907,19 @@
       <c r="E151" s="4">
         <v>187</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="5"/>
-      <c r="B152" s="5"/>
+      <c r="F151">
+        <v>24.11</v>
+      </c>
+      <c r="G151">
+        <v>2.86</v>
+      </c>
+      <c r="H151">
+        <v>79.33</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" s="6"/>
+      <c r="B152" s="6"/>
       <c r="C152" s="4" t="s">
         <v>13</v>
       </c>
@@ -2574,10 +3929,19 @@
       <c r="E152" s="4">
         <v>160</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="5"/>
-      <c r="B153" s="5"/>
+      <c r="F152">
+        <v>23.15</v>
+      </c>
+      <c r="G152">
+        <v>2.86</v>
+      </c>
+      <c r="H152">
+        <v>80.319999999999993</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" s="6"/>
+      <c r="B153" s="6"/>
       <c r="C153" s="4" t="s">
         <v>14</v>
       </c>
@@ -2587,10 +3951,19 @@
       <c r="E153" s="4">
         <v>177.5</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="5"/>
-      <c r="B154" s="5"/>
+      <c r="F153">
+        <v>24.15</v>
+      </c>
+      <c r="G153">
+        <v>2.86</v>
+      </c>
+      <c r="H153">
+        <v>74.97</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" s="6"/>
+      <c r="B154" s="6"/>
       <c r="C154" s="4" t="s">
         <v>15</v>
       </c>
@@ -2600,10 +3973,19 @@
       <c r="E154" s="4">
         <v>189</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="5"/>
-      <c r="B155" s="5"/>
+      <c r="F154">
+        <v>22.63</v>
+      </c>
+      <c r="G154">
+        <v>2.86</v>
+      </c>
+      <c r="H154">
+        <v>85.63</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" s="6"/>
+      <c r="B155" s="6"/>
       <c r="C155" s="4" t="s">
         <v>16</v>
       </c>
@@ -2613,10 +3995,19 @@
       <c r="E155" s="4">
         <v>292.5</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="5"/>
-      <c r="B156" s="5"/>
+      <c r="F155">
+        <v>22.22</v>
+      </c>
+      <c r="G155">
+        <v>2.86</v>
+      </c>
+      <c r="H155">
+        <v>88.81</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" s="6"/>
+      <c r="B156" s="6"/>
       <c r="C156" s="4" t="s">
         <v>17</v>
       </c>
@@ -2626,10 +4017,19 @@
       <c r="E156" s="4">
         <v>208.5</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="5"/>
-      <c r="B157" s="5"/>
+      <c r="F156">
+        <v>22.05</v>
+      </c>
+      <c r="G156">
+        <v>2.86</v>
+      </c>
+      <c r="H156">
+        <v>91.37</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" s="6"/>
+      <c r="B157" s="6"/>
       <c r="C157" s="4" t="s">
         <v>18</v>
       </c>
@@ -2639,10 +4039,19 @@
       <c r="E157" s="4">
         <v>177.5</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="5"/>
-      <c r="B158" s="5" t="s">
+      <c r="F157">
+        <v>21.69</v>
+      </c>
+      <c r="G157">
+        <v>2.86</v>
+      </c>
+      <c r="H157">
+        <v>92.97</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" s="6"/>
+      <c r="B158" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C158" s="4" t="s">
@@ -2654,10 +4063,19 @@
       <c r="E158" s="4">
         <v>191.5</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="5"/>
-      <c r="B159" s="5"/>
+      <c r="F158">
+        <v>20.09</v>
+      </c>
+      <c r="G158">
+        <v>2.86</v>
+      </c>
+      <c r="H158">
+        <v>88.87</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" s="6"/>
+      <c r="B159" s="6"/>
       <c r="C159" s="4" t="s">
         <v>8</v>
       </c>
@@ -2667,10 +4085,19 @@
       <c r="E159" s="4">
         <v>304</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="5"/>
-      <c r="B160" s="5"/>
+      <c r="F159">
+        <v>20.94</v>
+      </c>
+      <c r="G159">
+        <v>2.86</v>
+      </c>
+      <c r="H159">
+        <v>88.82</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" s="6"/>
+      <c r="B160" s="6"/>
       <c r="C160" s="4" t="s">
         <v>9</v>
       </c>
@@ -2680,10 +4107,19 @@
       <c r="E160" s="4">
         <v>281.5</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="5"/>
-      <c r="B161" s="5"/>
+      <c r="F160">
+        <v>22.05</v>
+      </c>
+      <c r="G160">
+        <v>2.86</v>
+      </c>
+      <c r="H160">
+        <v>88.13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="6"/>
+      <c r="B161" s="6"/>
       <c r="C161" s="4" t="s">
         <v>10</v>
       </c>
@@ -2693,10 +4129,19 @@
       <c r="E161" s="4">
         <v>352</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="5"/>
-      <c r="B162" s="5"/>
+      <c r="F161">
+        <v>23.42</v>
+      </c>
+      <c r="G161">
+        <v>2.86</v>
+      </c>
+      <c r="H161">
+        <v>83.87</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" s="6"/>
+      <c r="B162" s="6"/>
       <c r="C162" s="4" t="s">
         <v>11</v>
       </c>
@@ -2706,10 +4151,19 @@
       <c r="E162" s="4">
         <v>350</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="5"/>
-      <c r="B163" s="5"/>
+      <c r="F162">
+        <v>23.48</v>
+      </c>
+      <c r="G162">
+        <v>2.86</v>
+      </c>
+      <c r="H162">
+        <v>87.23</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" s="6"/>
+      <c r="B163" s="6"/>
       <c r="C163" s="4" t="s">
         <v>12</v>
       </c>
@@ -2719,10 +4173,19 @@
       <c r="E163" s="4">
         <v>263</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="5"/>
-      <c r="B164" s="5"/>
+      <c r="F163">
+        <v>24.11</v>
+      </c>
+      <c r="G163">
+        <v>2.86</v>
+      </c>
+      <c r="H163">
+        <v>79.33</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" s="6"/>
+      <c r="B164" s="6"/>
       <c r="C164" s="4" t="s">
         <v>13</v>
       </c>
@@ -2732,10 +4195,19 @@
       <c r="E164" s="4">
         <v>225</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="5"/>
-      <c r="B165" s="5"/>
+      <c r="F164">
+        <v>23.15</v>
+      </c>
+      <c r="G164">
+        <v>2.86</v>
+      </c>
+      <c r="H164">
+        <v>80.319999999999993</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" s="6"/>
+      <c r="B165" s="6"/>
       <c r="C165" s="4" t="s">
         <v>14</v>
       </c>
@@ -2745,10 +4217,19 @@
       <c r="E165" s="4">
         <v>214</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="5"/>
-      <c r="B166" s="5"/>
+      <c r="F165">
+        <v>24.15</v>
+      </c>
+      <c r="G165">
+        <v>2.86</v>
+      </c>
+      <c r="H165">
+        <v>74.97</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" s="6"/>
+      <c r="B166" s="6"/>
       <c r="C166" s="4" t="s">
         <v>15</v>
       </c>
@@ -2758,10 +4239,19 @@
       <c r="E166" s="4">
         <v>182</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="5"/>
-      <c r="B167" s="5"/>
+      <c r="F166">
+        <v>22.63</v>
+      </c>
+      <c r="G166">
+        <v>2.86</v>
+      </c>
+      <c r="H166">
+        <v>85.63</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" s="6"/>
+      <c r="B167" s="6"/>
       <c r="C167" s="4" t="s">
         <v>16</v>
       </c>
@@ -2771,10 +4261,19 @@
       <c r="E167" s="4">
         <v>271</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="5"/>
-      <c r="B168" s="5"/>
+      <c r="F167">
+        <v>22.22</v>
+      </c>
+      <c r="G167">
+        <v>2.86</v>
+      </c>
+      <c r="H167">
+        <v>88.81</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" s="6"/>
+      <c r="B168" s="6"/>
       <c r="C168" s="4" t="s">
         <v>17</v>
       </c>
@@ -2784,10 +4283,19 @@
       <c r="E168" s="4">
         <v>302</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="5"/>
-      <c r="B169" s="5"/>
+      <c r="F168">
+        <v>22.05</v>
+      </c>
+      <c r="G168">
+        <v>2.86</v>
+      </c>
+      <c r="H168">
+        <v>91.37</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" s="6"/>
+      <c r="B169" s="6"/>
       <c r="C169" s="4" t="s">
         <v>18</v>
       </c>
@@ -2797,10 +4305,19 @@
       <c r="E169" s="4">
         <v>234.5</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="5"/>
-      <c r="B170" s="5" t="s">
+      <c r="F169">
+        <v>21.69</v>
+      </c>
+      <c r="G169">
+        <v>2.86</v>
+      </c>
+      <c r="H169">
+        <v>92.97</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" s="6"/>
+      <c r="B170" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C170" s="4" t="s">
@@ -2812,10 +4329,19 @@
       <c r="E170" s="4">
         <v>277</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="5"/>
-      <c r="B171" s="5"/>
+      <c r="F170">
+        <v>20.09</v>
+      </c>
+      <c r="G170">
+        <v>2.86</v>
+      </c>
+      <c r="H170">
+        <v>88.87</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" s="6"/>
+      <c r="B171" s="6"/>
       <c r="C171" s="4" t="s">
         <v>8</v>
       </c>
@@ -2825,10 +4351,19 @@
       <c r="E171" s="4">
         <v>423.5</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="5"/>
-      <c r="B172" s="5"/>
+      <c r="F171">
+        <v>20.94</v>
+      </c>
+      <c r="G171">
+        <v>2.86</v>
+      </c>
+      <c r="H171">
+        <v>88.82</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172" s="6"/>
+      <c r="B172" s="6"/>
       <c r="C172" s="4" t="s">
         <v>9</v>
       </c>
@@ -2838,10 +4373,19 @@
       <c r="E172" s="4">
         <v>452</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="5"/>
-      <c r="B173" s="5"/>
+      <c r="F172">
+        <v>22.05</v>
+      </c>
+      <c r="G172">
+        <v>2.86</v>
+      </c>
+      <c r="H172">
+        <v>88.13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" s="6"/>
+      <c r="B173" s="6"/>
       <c r="C173" s="4" t="s">
         <v>10</v>
       </c>
@@ -2851,10 +4395,19 @@
       <c r="E173" s="4">
         <v>420</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="5"/>
-      <c r="B174" s="5"/>
+      <c r="F173">
+        <v>23.42</v>
+      </c>
+      <c r="G173">
+        <v>2.86</v>
+      </c>
+      <c r="H173">
+        <v>83.87</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" s="6"/>
+      <c r="B174" s="6"/>
       <c r="C174" s="4" t="s">
         <v>11</v>
       </c>
@@ -2865,10 +4418,19 @@
       <c r="E174" s="4">
         <v>422</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="5"/>
-      <c r="B175" s="5"/>
+      <c r="F174">
+        <v>23.48</v>
+      </c>
+      <c r="G174">
+        <v>2.86</v>
+      </c>
+      <c r="H174">
+        <v>87.23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" s="6"/>
+      <c r="B175" s="6"/>
       <c r="C175" s="4" t="s">
         <v>12</v>
       </c>
@@ -2878,10 +4440,19 @@
       <c r="E175" s="4">
         <v>400</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="5"/>
-      <c r="B176" s="5"/>
+      <c r="F175">
+        <v>24.11</v>
+      </c>
+      <c r="G175">
+        <v>2.86</v>
+      </c>
+      <c r="H175">
+        <v>79.33</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" s="6"/>
+      <c r="B176" s="6"/>
       <c r="C176" s="4" t="s">
         <v>13</v>
       </c>
@@ -2891,10 +4462,19 @@
       <c r="E176" s="4">
         <v>289.5</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="5"/>
-      <c r="B177" s="5"/>
+      <c r="F176">
+        <v>23.15</v>
+      </c>
+      <c r="G176">
+        <v>2.86</v>
+      </c>
+      <c r="H176">
+        <v>80.319999999999993</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" s="6"/>
+      <c r="B177" s="6"/>
       <c r="C177" s="4" t="s">
         <v>14</v>
       </c>
@@ -2904,10 +4484,19 @@
       <c r="E177" s="4">
         <v>245</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="5"/>
-      <c r="B178" s="5"/>
+      <c r="F177">
+        <v>24.15</v>
+      </c>
+      <c r="G177">
+        <v>2.86</v>
+      </c>
+      <c r="H177">
+        <v>74.97</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" s="6"/>
+      <c r="B178" s="6"/>
       <c r="C178" s="4" t="s">
         <v>15</v>
       </c>
@@ -2917,10 +4506,19 @@
       <c r="E178" s="4">
         <v>312.5</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="5"/>
-      <c r="B179" s="5"/>
+      <c r="F178">
+        <v>22.63</v>
+      </c>
+      <c r="G178">
+        <v>2.86</v>
+      </c>
+      <c r="H178">
+        <v>85.63</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" s="6"/>
+      <c r="B179" s="6"/>
       <c r="C179" s="4" t="s">
         <v>16</v>
       </c>
@@ -2930,10 +4528,19 @@
       <c r="E179" s="4">
         <v>404</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="5"/>
-      <c r="B180" s="5"/>
+      <c r="F179">
+        <v>22.22</v>
+      </c>
+      <c r="G179">
+        <v>2.86</v>
+      </c>
+      <c r="H179">
+        <v>88.81</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" s="6"/>
+      <c r="B180" s="6"/>
       <c r="C180" s="4" t="s">
         <v>17</v>
       </c>
@@ -2943,10 +4550,19 @@
       <c r="E180" s="4">
         <v>439</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="5"/>
-      <c r="B181" s="5"/>
+      <c r="F180">
+        <v>22.05</v>
+      </c>
+      <c r="G180">
+        <v>2.86</v>
+      </c>
+      <c r="H180">
+        <v>91.37</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" s="6"/>
+      <c r="B181" s="6"/>
       <c r="C181" s="4" t="s">
         <v>18</v>
       </c>
@@ -2956,10 +4572,19 @@
       <c r="E181" s="4">
         <v>189</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="5"/>
-      <c r="B182" s="5" t="s">
+      <c r="F181">
+        <v>21.69</v>
+      </c>
+      <c r="G181">
+        <v>2.86</v>
+      </c>
+      <c r="H181">
+        <v>92.97</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" s="6"/>
+      <c r="B182" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C182" s="4" t="s">
@@ -2971,10 +4596,19 @@
       <c r="E182" s="4">
         <v>151.5</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="5"/>
-      <c r="B183" s="5"/>
+      <c r="F182">
+        <v>20.09</v>
+      </c>
+      <c r="G182">
+        <v>2.86</v>
+      </c>
+      <c r="H182">
+        <v>88.87</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183" s="6"/>
+      <c r="B183" s="6"/>
       <c r="C183" s="4" t="s">
         <v>8</v>
       </c>
@@ -2984,10 +4618,19 @@
       <c r="E183" s="4">
         <v>205</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="5"/>
-      <c r="B184" s="5"/>
+      <c r="F183">
+        <v>20.94</v>
+      </c>
+      <c r="G183">
+        <v>2.86</v>
+      </c>
+      <c r="H183">
+        <v>88.82</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" s="6"/>
+      <c r="B184" s="6"/>
       <c r="C184" s="4" t="s">
         <v>9</v>
       </c>
@@ -2997,10 +4640,19 @@
       <c r="E184" s="4">
         <v>261</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="5"/>
-      <c r="B185" s="5"/>
+      <c r="F184">
+        <v>22.05</v>
+      </c>
+      <c r="G184">
+        <v>2.86</v>
+      </c>
+      <c r="H184">
+        <v>88.13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185" s="6"/>
+      <c r="B185" s="6"/>
       <c r="C185" s="4" t="s">
         <v>10</v>
       </c>
@@ -3010,10 +4662,19 @@
       <c r="E185" s="4">
         <v>212</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="5"/>
-      <c r="B186" s="5"/>
+      <c r="F185">
+        <v>23.42</v>
+      </c>
+      <c r="G185">
+        <v>2.86</v>
+      </c>
+      <c r="H185">
+        <v>83.87</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A186" s="6"/>
+      <c r="B186" s="6"/>
       <c r="C186" s="4" t="s">
         <v>11</v>
       </c>
@@ -3023,10 +4684,19 @@
       <c r="E186" s="4">
         <v>211</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="5"/>
-      <c r="B187" s="5"/>
+      <c r="F186">
+        <v>23.48</v>
+      </c>
+      <c r="G186">
+        <v>2.86</v>
+      </c>
+      <c r="H186">
+        <v>87.23</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187" s="6"/>
+      <c r="B187" s="6"/>
       <c r="C187" s="4" t="s">
         <v>12</v>
       </c>
@@ -3036,10 +4706,19 @@
       <c r="E187" s="4">
         <v>209</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="5"/>
-      <c r="B188" s="5"/>
+      <c r="F187">
+        <v>24.11</v>
+      </c>
+      <c r="G187">
+        <v>2.86</v>
+      </c>
+      <c r="H187">
+        <v>79.33</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188" s="6"/>
+      <c r="B188" s="6"/>
       <c r="C188" s="4" t="s">
         <v>13</v>
       </c>
@@ -3049,10 +4728,19 @@
       <c r="E188" s="4">
         <v>182</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="5"/>
-      <c r="B189" s="5"/>
+      <c r="F188">
+        <v>23.15</v>
+      </c>
+      <c r="G188">
+        <v>2.86</v>
+      </c>
+      <c r="H188">
+        <v>80.319999999999993</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A189" s="6"/>
+      <c r="B189" s="6"/>
       <c r="C189" s="4" t="s">
         <v>14</v>
       </c>
@@ -3062,10 +4750,19 @@
       <c r="E189" s="4">
         <v>125</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="5"/>
-      <c r="B190" s="5"/>
+      <c r="F189">
+        <v>24.15</v>
+      </c>
+      <c r="G189">
+        <v>2.86</v>
+      </c>
+      <c r="H189">
+        <v>74.97</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A190" s="6"/>
+      <c r="B190" s="6"/>
       <c r="C190" s="4" t="s">
         <v>15</v>
       </c>
@@ -3075,10 +4772,19 @@
       <c r="E190" s="4">
         <v>172</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="5"/>
-      <c r="B191" s="5"/>
+      <c r="F190">
+        <v>22.63</v>
+      </c>
+      <c r="G190">
+        <v>2.86</v>
+      </c>
+      <c r="H190">
+        <v>85.63</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191" s="6"/>
+      <c r="B191" s="6"/>
       <c r="C191" s="4" t="s">
         <v>16</v>
       </c>
@@ -3088,10 +4794,19 @@
       <c r="E191" s="4">
         <v>156</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="5"/>
-      <c r="B192" s="5"/>
+      <c r="F191">
+        <v>22.22</v>
+      </c>
+      <c r="G191">
+        <v>2.86</v>
+      </c>
+      <c r="H191">
+        <v>88.81</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192" s="6"/>
+      <c r="B192" s="6"/>
       <c r="C192" s="4" t="s">
         <v>17</v>
       </c>
@@ -3101,10 +4816,19 @@
       <c r="E192" s="4">
         <v>161</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="5"/>
-      <c r="B193" s="5"/>
+      <c r="F192">
+        <v>22.05</v>
+      </c>
+      <c r="G192">
+        <v>2.86</v>
+      </c>
+      <c r="H192">
+        <v>91.37</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193" s="6"/>
+      <c r="B193" s="6"/>
       <c r="C193" s="4" t="s">
         <v>18</v>
       </c>
@@ -3114,10 +4838,19 @@
       <c r="E193" s="4">
         <v>116</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="5"/>
-      <c r="B194" s="5" t="s">
+      <c r="F193">
+        <v>21.69</v>
+      </c>
+      <c r="G193">
+        <v>2.86</v>
+      </c>
+      <c r="H193">
+        <v>92.97</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194" s="6"/>
+      <c r="B194" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C194" s="4" t="s">
@@ -3129,10 +4862,19 @@
       <c r="E194" s="4">
         <v>162</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="5"/>
-      <c r="B195" s="5"/>
+      <c r="F194">
+        <v>20.09</v>
+      </c>
+      <c r="G194">
+        <v>2.86</v>
+      </c>
+      <c r="H194">
+        <v>88.87</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195" s="6"/>
+      <c r="B195" s="6"/>
       <c r="C195" s="4" t="s">
         <v>8</v>
       </c>
@@ -3142,10 +4884,19 @@
       <c r="E195" s="4">
         <v>182.5</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="5"/>
-      <c r="B196" s="5"/>
+      <c r="F195">
+        <v>20.94</v>
+      </c>
+      <c r="G195">
+        <v>2.86</v>
+      </c>
+      <c r="H195">
+        <v>88.82</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196" s="6"/>
+      <c r="B196" s="6"/>
       <c r="C196" s="4" t="s">
         <v>9</v>
       </c>
@@ -3155,10 +4906,19 @@
       <c r="E196" s="4">
         <v>192</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="5"/>
-      <c r="B197" s="5"/>
+      <c r="F196">
+        <v>22.05</v>
+      </c>
+      <c r="G196">
+        <v>2.86</v>
+      </c>
+      <c r="H196">
+        <v>88.13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197" s="6"/>
+      <c r="B197" s="6"/>
       <c r="C197" s="4" t="s">
         <v>10</v>
       </c>
@@ -3168,10 +4928,19 @@
       <c r="E197" s="4">
         <v>223</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="5"/>
-      <c r="B198" s="5"/>
+      <c r="F197">
+        <v>23.42</v>
+      </c>
+      <c r="G197">
+        <v>2.86</v>
+      </c>
+      <c r="H197">
+        <v>83.87</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198" s="6"/>
+      <c r="B198" s="6"/>
       <c r="C198" s="4" t="s">
         <v>11</v>
       </c>
@@ -3181,10 +4950,19 @@
       <c r="E198" s="4">
         <v>243</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="5"/>
-      <c r="B199" s="5"/>
+      <c r="F198">
+        <v>23.48</v>
+      </c>
+      <c r="G198">
+        <v>2.86</v>
+      </c>
+      <c r="H198">
+        <v>87.23</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199" s="6"/>
+      <c r="B199" s="6"/>
       <c r="C199" s="4" t="s">
         <v>12</v>
       </c>
@@ -3194,10 +4972,19 @@
       <c r="E199" s="4">
         <v>234</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="5"/>
-      <c r="B200" s="5"/>
+      <c r="F199">
+        <v>24.11</v>
+      </c>
+      <c r="G199">
+        <v>2.86</v>
+      </c>
+      <c r="H199">
+        <v>79.33</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A200" s="6"/>
+      <c r="B200" s="6"/>
       <c r="C200" s="4" t="s">
         <v>13</v>
       </c>
@@ -3207,10 +4994,19 @@
       <c r="E200" s="4">
         <v>137.5</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="5"/>
-      <c r="B201" s="5"/>
+      <c r="F200">
+        <v>23.15</v>
+      </c>
+      <c r="G200">
+        <v>2.86</v>
+      </c>
+      <c r="H200">
+        <v>80.319999999999993</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A201" s="6"/>
+      <c r="B201" s="6"/>
       <c r="C201" s="4" t="s">
         <v>14</v>
       </c>
@@ -3220,10 +5016,19 @@
       <c r="E201" s="4">
         <v>122</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="5"/>
-      <c r="B202" s="5"/>
+      <c r="F201">
+        <v>24.15</v>
+      </c>
+      <c r="G201">
+        <v>2.86</v>
+      </c>
+      <c r="H201">
+        <v>74.97</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A202" s="6"/>
+      <c r="B202" s="6"/>
       <c r="C202" s="4" t="s">
         <v>15</v>
       </c>
@@ -3233,10 +5038,19 @@
       <c r="E202" s="4">
         <v>231</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="5"/>
-      <c r="B203" s="5"/>
+      <c r="F202">
+        <v>22.63</v>
+      </c>
+      <c r="G202">
+        <v>2.86</v>
+      </c>
+      <c r="H202">
+        <v>85.63</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A203" s="6"/>
+      <c r="B203" s="6"/>
       <c r="C203" s="4" t="s">
         <v>16</v>
       </c>
@@ -3246,10 +5060,19 @@
       <c r="E203" s="4">
         <v>273.5</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="5"/>
-      <c r="B204" s="5"/>
+      <c r="F203">
+        <v>22.22</v>
+      </c>
+      <c r="G203">
+        <v>2.86</v>
+      </c>
+      <c r="H203">
+        <v>88.81</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204" s="6"/>
+      <c r="B204" s="6"/>
       <c r="C204" s="4" t="s">
         <v>17</v>
       </c>
@@ -3259,10 +5082,19 @@
       <c r="E204" s="4">
         <v>283</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="5"/>
-      <c r="B205" s="5"/>
+      <c r="F204">
+        <v>22.05</v>
+      </c>
+      <c r="G204">
+        <v>2.86</v>
+      </c>
+      <c r="H204">
+        <v>91.37</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205" s="6"/>
+      <c r="B205" s="6"/>
       <c r="C205" s="4" t="s">
         <v>18</v>
       </c>
@@ -3272,10 +5104,19 @@
       <c r="E205" s="4">
         <v>153.5</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="5"/>
-      <c r="B206" s="5" t="s">
+      <c r="F205">
+        <v>21.69</v>
+      </c>
+      <c r="G205">
+        <v>2.86</v>
+      </c>
+      <c r="H205">
+        <v>92.97</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206" s="6"/>
+      <c r="B206" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C206" s="4" t="s">
@@ -3287,10 +5128,19 @@
       <c r="E206" s="4">
         <v>114</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" s="5"/>
-      <c r="B207" s="5"/>
+      <c r="F206">
+        <v>20.09</v>
+      </c>
+      <c r="G206">
+        <v>2.86</v>
+      </c>
+      <c r="H206">
+        <v>88.87</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A207" s="6"/>
+      <c r="B207" s="6"/>
       <c r="C207" s="4" t="s">
         <v>8</v>
       </c>
@@ -3300,10 +5150,19 @@
       <c r="E207" s="4">
         <v>134</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" s="5"/>
-      <c r="B208" s="5"/>
+      <c r="F207">
+        <v>20.94</v>
+      </c>
+      <c r="G207">
+        <v>2.86</v>
+      </c>
+      <c r="H207">
+        <v>88.82</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208" s="6"/>
+      <c r="B208" s="6"/>
       <c r="C208" s="4" t="s">
         <v>9</v>
       </c>
@@ -3313,10 +5172,19 @@
       <c r="E208" s="4">
         <v>189</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" s="5"/>
-      <c r="B209" s="5"/>
+      <c r="F208">
+        <v>22.05</v>
+      </c>
+      <c r="G208">
+        <v>2.86</v>
+      </c>
+      <c r="H208">
+        <v>88.13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209" s="6"/>
+      <c r="B209" s="6"/>
       <c r="C209" s="4" t="s">
         <v>10</v>
       </c>
@@ -3326,10 +5194,19 @@
       <c r="E209" s="4">
         <v>133</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" s="5"/>
-      <c r="B210" s="5"/>
+      <c r="F209">
+        <v>23.42</v>
+      </c>
+      <c r="G209">
+        <v>2.86</v>
+      </c>
+      <c r="H209">
+        <v>83.87</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210" s="6"/>
+      <c r="B210" s="6"/>
       <c r="C210" s="4" t="s">
         <v>11</v>
       </c>
@@ -3339,10 +5216,19 @@
       <c r="E210" s="4">
         <v>161</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="5"/>
-      <c r="B211" s="5"/>
+      <c r="F210">
+        <v>23.48</v>
+      </c>
+      <c r="G210">
+        <v>2.86</v>
+      </c>
+      <c r="H210">
+        <v>87.23</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211" s="6"/>
+      <c r="B211" s="6"/>
       <c r="C211" s="4" t="s">
         <v>12</v>
       </c>
@@ -3352,10 +5238,19 @@
       <c r="E211" s="4">
         <v>125.5</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" s="5"/>
-      <c r="B212" s="5"/>
+      <c r="F211">
+        <v>24.11</v>
+      </c>
+      <c r="G211">
+        <v>2.86</v>
+      </c>
+      <c r="H211">
+        <v>79.33</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212" s="6"/>
+      <c r="B212" s="6"/>
       <c r="C212" s="4" t="s">
         <v>13</v>
       </c>
@@ -3365,10 +5260,19 @@
       <c r="E212" s="4">
         <v>113</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="5"/>
-      <c r="B213" s="5"/>
+      <c r="F212">
+        <v>23.15</v>
+      </c>
+      <c r="G212">
+        <v>2.86</v>
+      </c>
+      <c r="H212">
+        <v>80.319999999999993</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A213" s="6"/>
+      <c r="B213" s="6"/>
       <c r="C213" s="4" t="s">
         <v>14</v>
       </c>
@@ -3378,10 +5282,19 @@
       <c r="E213" s="4">
         <v>42</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="5"/>
-      <c r="B214" s="5"/>
+      <c r="F213">
+        <v>24.15</v>
+      </c>
+      <c r="G213">
+        <v>2.86</v>
+      </c>
+      <c r="H213">
+        <v>74.97</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A214" s="6"/>
+      <c r="B214" s="6"/>
       <c r="C214" s="4" t="s">
         <v>15</v>
       </c>
@@ -3391,10 +5304,19 @@
       <c r="E214" s="4">
         <v>116</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" s="5"/>
-      <c r="B215" s="5"/>
+      <c r="F214">
+        <v>22.63</v>
+      </c>
+      <c r="G214">
+        <v>2.86</v>
+      </c>
+      <c r="H214">
+        <v>85.63</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215" s="6"/>
+      <c r="B215" s="6"/>
       <c r="C215" s="4" t="s">
         <v>16</v>
       </c>
@@ -3404,10 +5326,19 @@
       <c r="E215" s="4">
         <v>118.5</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" s="5"/>
-      <c r="B216" s="5"/>
+      <c r="F215">
+        <v>22.22</v>
+      </c>
+      <c r="G215">
+        <v>2.86</v>
+      </c>
+      <c r="H215">
+        <v>88.81</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216" s="6"/>
+      <c r="B216" s="6"/>
       <c r="C216" s="4" t="s">
         <v>17</v>
       </c>
@@ -3417,10 +5348,19 @@
       <c r="E216" s="4">
         <v>192</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" s="5"/>
-      <c r="B217" s="5"/>
+      <c r="F216">
+        <v>22.05</v>
+      </c>
+      <c r="G216">
+        <v>2.86</v>
+      </c>
+      <c r="H216">
+        <v>91.37</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A217" s="6"/>
+      <c r="B217" s="6"/>
       <c r="C217" s="4" t="s">
         <v>18</v>
       </c>
@@ -3430,12 +5370,21 @@
       <c r="E217" s="4">
         <v>141</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" s="5">
+      <c r="F217">
+        <v>21.69</v>
+      </c>
+      <c r="G217">
+        <v>2.86</v>
+      </c>
+      <c r="H217">
+        <v>92.97</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218" s="6">
         <v>2024</v>
       </c>
-      <c r="B218" s="5" t="s">
+      <c r="B218" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C218" s="4" t="s">
@@ -3447,10 +5396,19 @@
       <c r="E218" s="4">
         <v>178</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" s="5"/>
-      <c r="B219" s="5"/>
+      <c r="F218">
+        <v>21.29</v>
+      </c>
+      <c r="G218">
+        <v>2.86</v>
+      </c>
+      <c r="H218">
+        <v>90.71</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219" s="6"/>
+      <c r="B219" s="6"/>
       <c r="C219" s="4" t="s">
         <v>8</v>
       </c>
@@ -3460,10 +5418,19 @@
       <c r="E219" s="4">
         <v>263</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" s="5"/>
-      <c r="B220" s="5"/>
+      <c r="F219">
+        <v>22.06</v>
+      </c>
+      <c r="G219">
+        <v>2.86</v>
+      </c>
+      <c r="H219">
+        <v>87.17</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220" s="6"/>
+      <c r="B220" s="6"/>
       <c r="C220" s="4" t="s">
         <v>9</v>
       </c>
@@ -3473,10 +5440,19 @@
       <c r="E220" s="4">
         <v>286</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221" s="5"/>
-      <c r="B221" s="5"/>
+      <c r="F220">
+        <v>23.27</v>
+      </c>
+      <c r="G220">
+        <v>2.86</v>
+      </c>
+      <c r="H220">
+        <v>77.650000000000006</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A221" s="6"/>
+      <c r="B221" s="6"/>
       <c r="C221" s="4" t="s">
         <v>10</v>
       </c>
@@ -3486,10 +5462,19 @@
       <c r="E221" s="4">
         <v>218</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222" s="5"/>
-      <c r="B222" s="5"/>
+      <c r="F221">
+        <v>25.05</v>
+      </c>
+      <c r="G221">
+        <v>2.86</v>
+      </c>
+      <c r="H221">
+        <v>78.03</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A222" s="6"/>
+      <c r="B222" s="6"/>
       <c r="C222" s="4" t="s">
         <v>11</v>
       </c>
@@ -3499,10 +5484,19 @@
       <c r="E222" s="4">
         <v>251.5</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A223" s="5"/>
-      <c r="B223" s="5"/>
+      <c r="F222">
+        <v>24.23</v>
+      </c>
+      <c r="G222">
+        <v>2.86</v>
+      </c>
+      <c r="H222">
+        <v>86.23</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223" s="6"/>
+      <c r="B223" s="6"/>
       <c r="C223" s="4" t="s">
         <v>12</v>
       </c>
@@ -3512,10 +5506,19 @@
       <c r="E223" s="4">
         <v>267</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A224" s="5"/>
-      <c r="B224" s="5"/>
+      <c r="F223">
+        <v>23.15</v>
+      </c>
+      <c r="G223">
+        <v>2.86</v>
+      </c>
+      <c r="H223">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224" s="6"/>
+      <c r="B224" s="6"/>
       <c r="C224" s="4" t="s">
         <v>13</v>
       </c>
@@ -3525,10 +5528,19 @@
       <c r="E224" s="4">
         <v>345</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225" s="5"/>
-      <c r="B225" s="5"/>
+      <c r="F224">
+        <v>23.22</v>
+      </c>
+      <c r="G224">
+        <v>2.86</v>
+      </c>
+      <c r="H224">
+        <v>83.71</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225" s="6"/>
+      <c r="B225" s="6"/>
       <c r="C225" s="4" t="s">
         <v>14</v>
       </c>
@@ -3538,10 +5550,19 @@
       <c r="E225" s="4">
         <v>245</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A226" s="5"/>
-      <c r="B226" s="5"/>
+      <c r="F225">
+        <v>22.92</v>
+      </c>
+      <c r="G225">
+        <v>2.86</v>
+      </c>
+      <c r="H225">
+        <v>85.1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A226" s="6"/>
+      <c r="B226" s="6"/>
       <c r="C226" s="4" t="s">
         <v>15</v>
       </c>
@@ -3551,10 +5572,19 @@
       <c r="E226" s="4">
         <v>322</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A227" s="5"/>
-      <c r="B227" s="5"/>
+      <c r="F226">
+        <v>23.35</v>
+      </c>
+      <c r="G226">
+        <v>2.86</v>
+      </c>
+      <c r="H226">
+        <v>81.47</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A227" s="6"/>
+      <c r="B227" s="6"/>
       <c r="C227" s="4" t="s">
         <v>16</v>
       </c>
@@ -3564,10 +5594,19 @@
       <c r="E227" s="4">
         <v>175</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A228" s="5"/>
-      <c r="B228" s="5"/>
+      <c r="F227">
+        <v>22.42</v>
+      </c>
+      <c r="G227">
+        <v>2.86</v>
+      </c>
+      <c r="H227">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228" s="6"/>
+      <c r="B228" s="6"/>
       <c r="C228" s="4" t="s">
         <v>17</v>
       </c>
@@ -3577,10 +5616,19 @@
       <c r="E228" s="4">
         <v>299.5</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A229" s="5"/>
-      <c r="B229" s="5"/>
+      <c r="F228">
+        <v>21.73</v>
+      </c>
+      <c r="G228">
+        <v>2.86</v>
+      </c>
+      <c r="H228">
+        <v>92.03</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229" s="6"/>
+      <c r="B229" s="6"/>
       <c r="C229" s="4" t="s">
         <v>18</v>
       </c>
@@ -3590,10 +5638,19 @@
       <c r="E229" s="4">
         <v>243</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A230" s="5"/>
-      <c r="B230" s="5" t="s">
+      <c r="F229">
+        <v>21.79</v>
+      </c>
+      <c r="G229">
+        <v>2.86</v>
+      </c>
+      <c r="H229">
+        <v>88.45</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230" s="6"/>
+      <c r="B230" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C230" s="4" t="s">
@@ -3605,10 +5662,19 @@
       <c r="E230" s="4">
         <v>183</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231" s="5"/>
-      <c r="B231" s="5"/>
+      <c r="F230">
+        <v>21.29</v>
+      </c>
+      <c r="G230">
+        <v>2.86</v>
+      </c>
+      <c r="H230">
+        <v>90.71</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231" s="6"/>
+      <c r="B231" s="6"/>
       <c r="C231" s="4" t="s">
         <v>8</v>
       </c>
@@ -3618,10 +5684,19 @@
       <c r="E231" s="4">
         <v>277.5</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A232" s="5"/>
-      <c r="B232" s="5"/>
+      <c r="F231">
+        <v>22.06</v>
+      </c>
+      <c r="G231">
+        <v>2.86</v>
+      </c>
+      <c r="H231">
+        <v>87.17</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232" s="6"/>
+      <c r="B232" s="6"/>
       <c r="C232" s="4" t="s">
         <v>9</v>
       </c>
@@ -3631,10 +5706,19 @@
       <c r="E232" s="4">
         <v>254</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" s="5"/>
-      <c r="B233" s="5"/>
+      <c r="F232">
+        <v>23.27</v>
+      </c>
+      <c r="G232">
+        <v>2.86</v>
+      </c>
+      <c r="H232">
+        <v>77.650000000000006</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233" s="6"/>
+      <c r="B233" s="6"/>
       <c r="C233" s="4" t="s">
         <v>10</v>
       </c>
@@ -3644,10 +5728,19 @@
       <c r="E233" s="4">
         <v>215</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A234" s="5"/>
-      <c r="B234" s="5"/>
+      <c r="F233">
+        <v>25.05</v>
+      </c>
+      <c r="G233">
+        <v>2.86</v>
+      </c>
+      <c r="H233">
+        <v>78.03</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A234" s="6"/>
+      <c r="B234" s="6"/>
       <c r="C234" s="4" t="s">
         <v>11</v>
       </c>
@@ -3657,10 +5750,19 @@
       <c r="E234" s="4">
         <v>182</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A235" s="5"/>
-      <c r="B235" s="5"/>
+      <c r="F234">
+        <v>24.23</v>
+      </c>
+      <c r="G234">
+        <v>2.86</v>
+      </c>
+      <c r="H234">
+        <v>86.23</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A235" s="6"/>
+      <c r="B235" s="6"/>
       <c r="C235" s="4" t="s">
         <v>12</v>
       </c>
@@ -3670,10 +5772,19 @@
       <c r="E235" s="4">
         <v>242</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A236" s="5"/>
-      <c r="B236" s="5"/>
+      <c r="F235">
+        <v>23.15</v>
+      </c>
+      <c r="G235">
+        <v>2.86</v>
+      </c>
+      <c r="H235">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236" s="6"/>
+      <c r="B236" s="6"/>
       <c r="C236" s="4" t="s">
         <v>13</v>
       </c>
@@ -3683,10 +5794,19 @@
       <c r="E236" s="4">
         <v>213.5</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A237" s="5"/>
-      <c r="B237" s="5"/>
+      <c r="F236">
+        <v>23.22</v>
+      </c>
+      <c r="G236">
+        <v>2.86</v>
+      </c>
+      <c r="H236">
+        <v>83.71</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237" s="6"/>
+      <c r="B237" s="6"/>
       <c r="C237" s="4" t="s">
         <v>14</v>
       </c>
@@ -3696,10 +5816,19 @@
       <c r="E237" s="4">
         <v>270</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A238" s="5"/>
-      <c r="B238" s="5"/>
+      <c r="F237">
+        <v>22.92</v>
+      </c>
+      <c r="G237">
+        <v>2.86</v>
+      </c>
+      <c r="H237">
+        <v>85.1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A238" s="6"/>
+      <c r="B238" s="6"/>
       <c r="C238" s="4" t="s">
         <v>15</v>
       </c>
@@ -3709,10 +5838,19 @@
       <c r="E238" s="4">
         <v>291</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A239" s="5"/>
-      <c r="B239" s="5"/>
+      <c r="F238">
+        <v>23.35</v>
+      </c>
+      <c r="G238">
+        <v>2.86</v>
+      </c>
+      <c r="H238">
+        <v>81.47</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A239" s="6"/>
+      <c r="B239" s="6"/>
       <c r="C239" s="4" t="s">
         <v>16</v>
       </c>
@@ -3722,10 +5860,19 @@
       <c r="E239" s="4">
         <v>193</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A240" s="5"/>
-      <c r="B240" s="5"/>
+      <c r="F239">
+        <v>22.42</v>
+      </c>
+      <c r="G239">
+        <v>2.86</v>
+      </c>
+      <c r="H239">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A240" s="6"/>
+      <c r="B240" s="6"/>
       <c r="C240" s="4" t="s">
         <v>17</v>
       </c>
@@ -3735,10 +5882,19 @@
       <c r="E240" s="4">
         <v>220</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A241" s="5"/>
-      <c r="B241" s="5"/>
+      <c r="F240">
+        <v>21.73</v>
+      </c>
+      <c r="G240">
+        <v>2.86</v>
+      </c>
+      <c r="H240">
+        <v>92.03</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A241" s="6"/>
+      <c r="B241" s="6"/>
       <c r="C241" s="4" t="s">
         <v>18</v>
       </c>
@@ -3749,10 +5905,19 @@
         <f>248+7</f>
         <v>255</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A242" s="5"/>
-      <c r="B242" s="5" t="s">
+      <c r="F241">
+        <v>21.79</v>
+      </c>
+      <c r="G241">
+        <v>2.86</v>
+      </c>
+      <c r="H241">
+        <v>88.45</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A242" s="6"/>
+      <c r="B242" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C242" s="4" t="s">
@@ -3764,10 +5929,19 @@
       <c r="E242" s="4">
         <v>322</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A243" s="5"/>
-      <c r="B243" s="5"/>
+      <c r="F242">
+        <v>21.29</v>
+      </c>
+      <c r="G242">
+        <v>2.86</v>
+      </c>
+      <c r="H242">
+        <v>90.71</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A243" s="6"/>
+      <c r="B243" s="6"/>
       <c r="C243" s="4" t="s">
         <v>8</v>
       </c>
@@ -3777,10 +5951,19 @@
       <c r="E243" s="4">
         <v>447</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A244" s="5"/>
-      <c r="B244" s="5"/>
+      <c r="F243">
+        <v>22.06</v>
+      </c>
+      <c r="G243">
+        <v>2.86</v>
+      </c>
+      <c r="H243">
+        <v>87.17</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A244" s="6"/>
+      <c r="B244" s="6"/>
       <c r="C244" s="4" t="s">
         <v>9</v>
       </c>
@@ -3790,10 +5973,19 @@
       <c r="E244" s="4">
         <v>398</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A245" s="5"/>
-      <c r="B245" s="5"/>
+      <c r="F244">
+        <v>23.27</v>
+      </c>
+      <c r="G244">
+        <v>2.86</v>
+      </c>
+      <c r="H244">
+        <v>77.650000000000006</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A245" s="6"/>
+      <c r="B245" s="6"/>
       <c r="C245" s="4" t="s">
         <v>10</v>
       </c>
@@ -3803,10 +5995,19 @@
       <c r="E245" s="4">
         <v>388</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A246" s="5"/>
-      <c r="B246" s="5"/>
+      <c r="F245">
+        <v>25.05</v>
+      </c>
+      <c r="G245">
+        <v>2.86</v>
+      </c>
+      <c r="H245">
+        <v>78.03</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A246" s="6"/>
+      <c r="B246" s="6"/>
       <c r="C246" s="4" t="s">
         <v>11</v>
       </c>
@@ -3816,10 +6017,19 @@
       <c r="E246" s="4">
         <v>349</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A247" s="5"/>
-      <c r="B247" s="5"/>
+      <c r="F246">
+        <v>24.23</v>
+      </c>
+      <c r="G246">
+        <v>2.86</v>
+      </c>
+      <c r="H246">
+        <v>86.23</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A247" s="6"/>
+      <c r="B247" s="6"/>
       <c r="C247" s="4" t="s">
         <v>12</v>
       </c>
@@ -3829,10 +6039,19 @@
       <c r="E247" s="4">
         <v>358.5</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A248" s="5"/>
-      <c r="B248" s="5"/>
+      <c r="F247">
+        <v>23.15</v>
+      </c>
+      <c r="G247">
+        <v>2.86</v>
+      </c>
+      <c r="H247">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A248" s="6"/>
+      <c r="B248" s="6"/>
       <c r="C248" s="4" t="s">
         <v>13</v>
       </c>
@@ -3842,10 +6061,19 @@
       <c r="E248" s="4">
         <v>405.5</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A249" s="5"/>
-      <c r="B249" s="5"/>
+      <c r="F248">
+        <v>23.22</v>
+      </c>
+      <c r="G248">
+        <v>2.86</v>
+      </c>
+      <c r="H248">
+        <v>83.71</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A249" s="6"/>
+      <c r="B249" s="6"/>
       <c r="C249" s="4" t="s">
         <v>14</v>
       </c>
@@ -3855,10 +6083,19 @@
       <c r="E249" s="4">
         <v>252</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A250" s="5"/>
-      <c r="B250" s="5"/>
+      <c r="F249">
+        <v>22.92</v>
+      </c>
+      <c r="G249">
+        <v>2.86</v>
+      </c>
+      <c r="H249">
+        <v>85.1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A250" s="6"/>
+      <c r="B250" s="6"/>
       <c r="C250" s="4" t="s">
         <v>15</v>
       </c>
@@ -3868,10 +6105,19 @@
       <c r="E250" s="4">
         <v>300</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A251" s="5"/>
-      <c r="B251" s="5"/>
+      <c r="F250">
+        <v>23.35</v>
+      </c>
+      <c r="G250">
+        <v>2.86</v>
+      </c>
+      <c r="H250">
+        <v>81.47</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A251" s="6"/>
+      <c r="B251" s="6"/>
       <c r="C251" s="4" t="s">
         <v>16</v>
       </c>
@@ -3881,10 +6127,19 @@
       <c r="E251" s="4">
         <v>247</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A252" s="5"/>
-      <c r="B252" s="5"/>
+      <c r="F251">
+        <v>22.42</v>
+      </c>
+      <c r="G251">
+        <v>2.86</v>
+      </c>
+      <c r="H251">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A252" s="6"/>
+      <c r="B252" s="6"/>
       <c r="C252" s="4" t="s">
         <v>17</v>
       </c>
@@ -3894,10 +6149,19 @@
       <c r="E252" s="4">
         <v>305</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A253" s="5"/>
-      <c r="B253" s="5"/>
+      <c r="F252">
+        <v>21.73</v>
+      </c>
+      <c r="G252">
+        <v>2.86</v>
+      </c>
+      <c r="H252">
+        <v>92.03</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A253" s="6"/>
+      <c r="B253" s="6"/>
       <c r="C253" s="4" t="s">
         <v>18</v>
       </c>
@@ -3907,10 +6171,19 @@
       <c r="E253" s="4">
         <v>298</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A254" s="5"/>
-      <c r="B254" s="5" t="s">
+      <c r="F253">
+        <v>21.79</v>
+      </c>
+      <c r="G253">
+        <v>2.86</v>
+      </c>
+      <c r="H253">
+        <v>88.45</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A254" s="6"/>
+      <c r="B254" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C254" s="4" t="s">
@@ -3922,10 +6195,19 @@
       <c r="E254" s="4">
         <v>112</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A255" s="5"/>
-      <c r="B255" s="5"/>
+      <c r="F254">
+        <v>21.29</v>
+      </c>
+      <c r="G254">
+        <v>2.86</v>
+      </c>
+      <c r="H254">
+        <v>90.71</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A255" s="6"/>
+      <c r="B255" s="6"/>
       <c r="C255" s="4" t="s">
         <v>8</v>
       </c>
@@ -3935,10 +6217,19 @@
       <c r="E255" s="4">
         <v>168</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A256" s="5"/>
-      <c r="B256" s="5"/>
+      <c r="F255">
+        <v>22.06</v>
+      </c>
+      <c r="G255">
+        <v>2.86</v>
+      </c>
+      <c r="H255">
+        <v>87.17</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A256" s="6"/>
+      <c r="B256" s="6"/>
       <c r="C256" s="4" t="s">
         <v>9</v>
       </c>
@@ -3948,10 +6239,19 @@
       <c r="E256" s="4">
         <v>174</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A257" s="5"/>
-      <c r="B257" s="5"/>
+      <c r="F256">
+        <v>23.27</v>
+      </c>
+      <c r="G256">
+        <v>2.86</v>
+      </c>
+      <c r="H256">
+        <v>77.650000000000006</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A257" s="6"/>
+      <c r="B257" s="6"/>
       <c r="C257" s="4" t="s">
         <v>10</v>
       </c>
@@ -3961,10 +6261,19 @@
       <c r="E257" s="4">
         <v>116</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A258" s="5"/>
-      <c r="B258" s="5"/>
+      <c r="F257">
+        <v>25.05</v>
+      </c>
+      <c r="G257">
+        <v>2.86</v>
+      </c>
+      <c r="H257">
+        <v>78.03</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A258" s="6"/>
+      <c r="B258" s="6"/>
       <c r="C258" s="4" t="s">
         <v>11</v>
       </c>
@@ -3974,10 +6283,19 @@
       <c r="E258" s="4">
         <v>161</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A259" s="5"/>
-      <c r="B259" s="5"/>
+      <c r="F258">
+        <v>24.23</v>
+      </c>
+      <c r="G258">
+        <v>2.86</v>
+      </c>
+      <c r="H258">
+        <v>86.23</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A259" s="6"/>
+      <c r="B259" s="6"/>
       <c r="C259" s="4" t="s">
         <v>12</v>
       </c>
@@ -3987,10 +6305,19 @@
       <c r="E259" s="4">
         <v>115</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A260" s="5"/>
-      <c r="B260" s="5"/>
+      <c r="F259">
+        <v>23.15</v>
+      </c>
+      <c r="G259">
+        <v>2.86</v>
+      </c>
+      <c r="H259">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A260" s="6"/>
+      <c r="B260" s="6"/>
       <c r="C260" s="4" t="s">
         <v>13</v>
       </c>
@@ -4000,10 +6327,19 @@
       <c r="E260" s="4">
         <v>137</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A261" s="5"/>
-      <c r="B261" s="5"/>
+      <c r="F260">
+        <v>23.22</v>
+      </c>
+      <c r="G260">
+        <v>2.86</v>
+      </c>
+      <c r="H260">
+        <v>83.71</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A261" s="6"/>
+      <c r="B261" s="6"/>
       <c r="C261" s="4" t="s">
         <v>14</v>
       </c>
@@ -4013,10 +6349,19 @@
       <c r="E261" s="4">
         <v>102</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A262" s="5"/>
-      <c r="B262" s="5"/>
+      <c r="F261">
+        <v>22.92</v>
+      </c>
+      <c r="G261">
+        <v>2.86</v>
+      </c>
+      <c r="H261">
+        <v>85.1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A262" s="6"/>
+      <c r="B262" s="6"/>
       <c r="C262" s="4" t="s">
         <v>15</v>
       </c>
@@ -4026,10 +6371,19 @@
       <c r="E262" s="4">
         <v>160</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A263" s="5"/>
-      <c r="B263" s="5"/>
+      <c r="F262">
+        <v>23.35</v>
+      </c>
+      <c r="G262">
+        <v>2.86</v>
+      </c>
+      <c r="H262">
+        <v>81.47</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A263" s="6"/>
+      <c r="B263" s="6"/>
       <c r="C263" s="4" t="s">
         <v>16</v>
       </c>
@@ -4039,10 +6393,19 @@
       <c r="E263" s="4">
         <v>81.5</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A264" s="5"/>
-      <c r="B264" s="5"/>
+      <c r="F263">
+        <v>22.42</v>
+      </c>
+      <c r="G263">
+        <v>2.86</v>
+      </c>
+      <c r="H263">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A264" s="6"/>
+      <c r="B264" s="6"/>
       <c r="C264" s="4" t="s">
         <v>17</v>
       </c>
@@ -4052,10 +6415,19 @@
       <c r="E264" s="4">
         <v>103.5</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A265" s="5"/>
-      <c r="B265" s="5"/>
+      <c r="F264">
+        <v>21.73</v>
+      </c>
+      <c r="G264">
+        <v>2.86</v>
+      </c>
+      <c r="H264">
+        <v>92.03</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A265" s="6"/>
+      <c r="B265" s="6"/>
       <c r="C265" s="4" t="s">
         <v>18</v>
       </c>
@@ -4065,10 +6437,19 @@
       <c r="E265" s="4">
         <v>92</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A266" s="5"/>
-      <c r="B266" s="5" t="s">
+      <c r="F265">
+        <v>21.79</v>
+      </c>
+      <c r="G265">
+        <v>2.86</v>
+      </c>
+      <c r="H265">
+        <v>88.45</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A266" s="6"/>
+      <c r="B266" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C266" s="4" t="s">
@@ -4080,10 +6461,19 @@
       <c r="E266" s="4">
         <v>138</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A267" s="5"/>
-      <c r="B267" s="5"/>
+      <c r="F266">
+        <v>21.29</v>
+      </c>
+      <c r="G266">
+        <v>2.86</v>
+      </c>
+      <c r="H266">
+        <v>90.71</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A267" s="6"/>
+      <c r="B267" s="6"/>
       <c r="C267" s="4" t="s">
         <v>8</v>
       </c>
@@ -4093,10 +6483,19 @@
       <c r="E267" s="4">
         <v>248</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A268" s="5"/>
-      <c r="B268" s="5"/>
+      <c r="F267">
+        <v>22.06</v>
+      </c>
+      <c r="G267">
+        <v>2.86</v>
+      </c>
+      <c r="H267">
+        <v>87.17</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A268" s="6"/>
+      <c r="B268" s="6"/>
       <c r="C268" s="4" t="s">
         <v>9</v>
       </c>
@@ -4106,10 +6505,19 @@
       <c r="E268" s="4">
         <v>282</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A269" s="5"/>
-      <c r="B269" s="5"/>
+      <c r="F268">
+        <v>23.27</v>
+      </c>
+      <c r="G268">
+        <v>2.86</v>
+      </c>
+      <c r="H268">
+        <v>77.650000000000006</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A269" s="6"/>
+      <c r="B269" s="6"/>
       <c r="C269" s="4" t="s">
         <v>10</v>
       </c>
@@ -4119,10 +6527,19 @@
       <c r="E269" s="4">
         <v>233</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A270" s="5"/>
-      <c r="B270" s="5"/>
+      <c r="F269">
+        <v>25.05</v>
+      </c>
+      <c r="G269">
+        <v>2.86</v>
+      </c>
+      <c r="H269">
+        <v>78.03</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A270" s="6"/>
+      <c r="B270" s="6"/>
       <c r="C270" s="4" t="s">
         <v>11</v>
       </c>
@@ -4132,10 +6549,19 @@
       <c r="E270" s="4">
         <v>277</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A271" s="5"/>
-      <c r="B271" s="5"/>
+      <c r="F270">
+        <v>24.23</v>
+      </c>
+      <c r="G270">
+        <v>2.86</v>
+      </c>
+      <c r="H270">
+        <v>86.23</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A271" s="6"/>
+      <c r="B271" s="6"/>
       <c r="C271" s="4" t="s">
         <v>12</v>
       </c>
@@ -4145,10 +6571,19 @@
       <c r="E271" s="4">
         <v>191</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A272" s="5"/>
-      <c r="B272" s="5"/>
+      <c r="F271">
+        <v>23.15</v>
+      </c>
+      <c r="G271">
+        <v>2.86</v>
+      </c>
+      <c r="H271">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A272" s="6"/>
+      <c r="B272" s="6"/>
       <c r="C272" s="4" t="s">
         <v>13</v>
       </c>
@@ -4158,10 +6593,19 @@
       <c r="E272" s="4">
         <v>153</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A273" s="5"/>
-      <c r="B273" s="5"/>
+      <c r="F272">
+        <v>23.22</v>
+      </c>
+      <c r="G272">
+        <v>2.86</v>
+      </c>
+      <c r="H272">
+        <v>83.71</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A273" s="6"/>
+      <c r="B273" s="6"/>
       <c r="C273" s="4" t="s">
         <v>14</v>
       </c>
@@ -4171,10 +6615,19 @@
       <c r="E273" s="4">
         <v>107.5</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A274" s="5"/>
-      <c r="B274" s="5"/>
+      <c r="F273">
+        <v>22.92</v>
+      </c>
+      <c r="G273">
+        <v>2.86</v>
+      </c>
+      <c r="H273">
+        <v>85.1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A274" s="6"/>
+      <c r="B274" s="6"/>
       <c r="C274" s="4" t="s">
         <v>15</v>
       </c>
@@ -4184,10 +6637,19 @@
       <c r="E274" s="4">
         <v>212</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A275" s="5"/>
-      <c r="B275" s="5"/>
+      <c r="F274">
+        <v>23.35</v>
+      </c>
+      <c r="G274">
+        <v>2.86</v>
+      </c>
+      <c r="H274">
+        <v>81.47</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A275" s="6"/>
+      <c r="B275" s="6"/>
       <c r="C275" s="4" t="s">
         <v>16</v>
       </c>
@@ -4197,10 +6659,19 @@
       <c r="E275" s="4">
         <v>116</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A276" s="5"/>
-      <c r="B276" s="5"/>
+      <c r="F275">
+        <v>22.42</v>
+      </c>
+      <c r="G275">
+        <v>2.86</v>
+      </c>
+      <c r="H275">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A276" s="6"/>
+      <c r="B276" s="6"/>
       <c r="C276" s="4" t="s">
         <v>17</v>
       </c>
@@ -4210,10 +6681,19 @@
       <c r="E276" s="4">
         <v>247</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A277" s="5"/>
-      <c r="B277" s="5"/>
+      <c r="F276">
+        <v>21.73</v>
+      </c>
+      <c r="G276">
+        <v>2.86</v>
+      </c>
+      <c r="H276">
+        <v>92.03</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A277" s="6"/>
+      <c r="B277" s="6"/>
       <c r="C277" s="4" t="s">
         <v>18</v>
       </c>
@@ -4223,10 +6703,19 @@
       <c r="E277" s="4">
         <v>216</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A278" s="5"/>
-      <c r="B278" s="5" t="s">
+      <c r="F277">
+        <v>21.79</v>
+      </c>
+      <c r="G277">
+        <v>2.86</v>
+      </c>
+      <c r="H277">
+        <v>88.45</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A278" s="6"/>
+      <c r="B278" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C278" s="4" t="s">
@@ -4238,10 +6727,19 @@
       <c r="E278" s="4">
         <v>47.5</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A279" s="5"/>
-      <c r="B279" s="5"/>
+      <c r="F278">
+        <v>21.29</v>
+      </c>
+      <c r="G278">
+        <v>2.86</v>
+      </c>
+      <c r="H278">
+        <v>90.71</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A279" s="6"/>
+      <c r="B279" s="6"/>
       <c r="C279" s="4" t="s">
         <v>8</v>
       </c>
@@ -4251,10 +6749,19 @@
       <c r="E279" s="4">
         <v>173.5</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A280" s="5"/>
-      <c r="B280" s="5"/>
+      <c r="F279">
+        <v>22.06</v>
+      </c>
+      <c r="G279">
+        <v>2.86</v>
+      </c>
+      <c r="H279">
+        <v>87.17</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A280" s="6"/>
+      <c r="B280" s="6"/>
       <c r="C280" s="4" t="s">
         <v>9</v>
       </c>
@@ -4264,10 +6771,19 @@
       <c r="E280" s="4">
         <v>154</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A281" s="5"/>
-      <c r="B281" s="5"/>
+      <c r="F280">
+        <v>23.27</v>
+      </c>
+      <c r="G280">
+        <v>2.86</v>
+      </c>
+      <c r="H280">
+        <v>77.650000000000006</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A281" s="6"/>
+      <c r="B281" s="6"/>
       <c r="C281" s="4" t="s">
         <v>10</v>
       </c>
@@ -4277,10 +6793,19 @@
       <c r="E281" s="4">
         <v>94</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A282" s="5"/>
-      <c r="B282" s="5"/>
+      <c r="F281">
+        <v>25.05</v>
+      </c>
+      <c r="G281">
+        <v>2.86</v>
+      </c>
+      <c r="H281">
+        <v>78.03</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A282" s="6"/>
+      <c r="B282" s="6"/>
       <c r="C282" s="4" t="s">
         <v>11</v>
       </c>
@@ -4290,10 +6815,19 @@
       <c r="E282" s="4">
         <v>169</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A283" s="5"/>
-      <c r="B283" s="5"/>
+      <c r="F282">
+        <v>24.23</v>
+      </c>
+      <c r="G282">
+        <v>2.86</v>
+      </c>
+      <c r="H282">
+        <v>86.23</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A283" s="6"/>
+      <c r="B283" s="6"/>
       <c r="C283" s="4" t="s">
         <v>12</v>
       </c>
@@ -4303,10 +6837,19 @@
       <c r="E283" s="4">
         <v>65</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A284" s="5"/>
-      <c r="B284" s="5"/>
+      <c r="F283">
+        <v>23.15</v>
+      </c>
+      <c r="G283">
+        <v>2.86</v>
+      </c>
+      <c r="H283">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A284" s="6"/>
+      <c r="B284" s="6"/>
       <c r="C284" s="4" t="s">
         <v>13</v>
       </c>
@@ -4316,10 +6859,19 @@
       <c r="E284" s="4">
         <v>72</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A285" s="5"/>
-      <c r="B285" s="5"/>
+      <c r="F284">
+        <v>23.22</v>
+      </c>
+      <c r="G284">
+        <v>2.86</v>
+      </c>
+      <c r="H284">
+        <v>83.71</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A285" s="6"/>
+      <c r="B285" s="6"/>
       <c r="C285" s="4" t="s">
         <v>14</v>
       </c>
@@ -4329,10 +6881,19 @@
       <c r="E285" s="4">
         <v>47.5</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A286" s="5"/>
-      <c r="B286" s="5"/>
+      <c r="F285">
+        <v>22.92</v>
+      </c>
+      <c r="G285">
+        <v>2.86</v>
+      </c>
+      <c r="H285">
+        <v>85.1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A286" s="6"/>
+      <c r="B286" s="6"/>
       <c r="C286" s="4" t="s">
         <v>15</v>
       </c>
@@ -4342,10 +6903,19 @@
       <c r="E286" s="4">
         <v>80</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A287" s="5"/>
-      <c r="B287" s="5"/>
+      <c r="F286">
+        <v>23.35</v>
+      </c>
+      <c r="G286">
+        <v>2.86</v>
+      </c>
+      <c r="H286">
+        <v>81.47</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A287" s="6"/>
+      <c r="B287" s="6"/>
       <c r="C287" s="4" t="s">
         <v>16</v>
       </c>
@@ -4355,10 +6925,19 @@
       <c r="E287" s="4">
         <v>58.5</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A288" s="5"/>
-      <c r="B288" s="5"/>
+      <c r="F287">
+        <v>22.42</v>
+      </c>
+      <c r="G287">
+        <v>2.86</v>
+      </c>
+      <c r="H287">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A288" s="6"/>
+      <c r="B288" s="6"/>
       <c r="C288" s="4" t="s">
         <v>17</v>
       </c>
@@ -4368,10 +6947,19 @@
       <c r="E288" s="4">
         <v>61</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A289" s="5"/>
-      <c r="B289" s="5"/>
+      <c r="F288">
+        <v>21.73</v>
+      </c>
+      <c r="G288">
+        <v>2.86</v>
+      </c>
+      <c r="H288">
+        <v>92.03</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A289" s="6"/>
+      <c r="B289" s="6"/>
       <c r="C289" s="4" t="s">
         <v>18</v>
       </c>
@@ -4381,12 +6969,21 @@
       <c r="E289" s="4">
         <v>145</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A290" s="5">
+      <c r="F289">
+        <v>21.79</v>
+      </c>
+      <c r="G289">
+        <v>2.86</v>
+      </c>
+      <c r="H289">
+        <v>88.45</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A290" s="6">
         <v>2025</v>
       </c>
-      <c r="B290" s="5" t="s">
+      <c r="B290" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C290" s="4" t="s">
@@ -4398,10 +6995,19 @@
       <c r="E290" s="4">
         <v>220</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A291" s="5"/>
-      <c r="B291" s="5"/>
+      <c r="F290">
+        <v>20.81</v>
+      </c>
+      <c r="G290">
+        <v>2.86</v>
+      </c>
+      <c r="H290">
+        <v>93.06</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A291" s="6"/>
+      <c r="B291" s="6"/>
       <c r="C291" s="4" t="s">
         <v>8</v>
       </c>
@@ -4411,10 +7017,19 @@
       <c r="E291" s="4">
         <v>210</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A292" s="5"/>
-      <c r="B292" s="5"/>
+      <c r="F291">
+        <v>21.51</v>
+      </c>
+      <c r="G291">
+        <v>2.86</v>
+      </c>
+      <c r="H291">
+        <v>84.21</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A292" s="6"/>
+      <c r="B292" s="6"/>
       <c r="C292" s="4" t="s">
         <v>9</v>
       </c>
@@ -4424,10 +7039,19 @@
       <c r="E292" s="4">
         <v>295</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A293" s="5"/>
-      <c r="B293" s="5"/>
+      <c r="F292">
+        <v>22.55</v>
+      </c>
+      <c r="G292">
+        <v>2.86</v>
+      </c>
+      <c r="H292">
+        <v>83.55</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A293" s="6"/>
+      <c r="B293" s="6"/>
       <c r="C293" s="4" t="s">
         <v>10</v>
       </c>
@@ -4437,10 +7061,19 @@
       <c r="E293" s="4">
         <v>299</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A294" s="5"/>
-      <c r="B294" s="5"/>
+      <c r="F293">
+        <v>22.78</v>
+      </c>
+      <c r="G293">
+        <v>2.86</v>
+      </c>
+      <c r="H293">
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A294" s="6"/>
+      <c r="B294" s="6"/>
       <c r="C294" s="4" t="s">
         <v>11</v>
       </c>
@@ -4450,10 +7083,19 @@
       <c r="E294" s="4">
         <v>236.5</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A295" s="5"/>
-      <c r="B295" s="5"/>
+      <c r="F294">
+        <v>23.18</v>
+      </c>
+      <c r="G294">
+        <v>2.86</v>
+      </c>
+      <c r="H294">
+        <v>87.77</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A295" s="6"/>
+      <c r="B295" s="6"/>
       <c r="C295" s="4" t="s">
         <v>12</v>
       </c>
@@ -4463,10 +7105,19 @@
       <c r="E295" s="4">
         <v>159</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A296" s="5"/>
-      <c r="B296" s="5"/>
+      <c r="F295">
+        <v>22.93</v>
+      </c>
+      <c r="G295">
+        <v>2.86</v>
+      </c>
+      <c r="H295">
+        <v>84.13</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A296" s="6"/>
+      <c r="B296" s="6"/>
       <c r="C296" s="4" t="s">
         <v>13</v>
       </c>
@@ -4476,10 +7127,19 @@
       <c r="E296" s="4">
         <v>235</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A297" s="5"/>
-      <c r="B297" s="5"/>
+      <c r="F296">
+        <v>22.75</v>
+      </c>
+      <c r="G296">
+        <v>2.86</v>
+      </c>
+      <c r="H296">
+        <v>83.61</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A297" s="6"/>
+      <c r="B297" s="6"/>
       <c r="C297" s="4" t="s">
         <v>14</v>
       </c>
@@ -4489,10 +7149,19 @@
       <c r="E297" s="4">
         <v>182</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A298" s="5"/>
-      <c r="B298" s="5"/>
+      <c r="F297">
+        <v>22.64</v>
+      </c>
+      <c r="G297">
+        <v>2.86</v>
+      </c>
+      <c r="H297">
+        <v>82.19</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A298" s="6"/>
+      <c r="B298" s="6"/>
       <c r="C298" s="4" t="s">
         <v>15</v>
       </c>
@@ -4502,10 +7171,19 @@
       <c r="E298" s="4">
         <v>332.5</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A299" s="5"/>
-      <c r="B299" s="5"/>
+      <c r="F298">
+        <v>22.71</v>
+      </c>
+      <c r="G298">
+        <v>2.86</v>
+      </c>
+      <c r="H298">
+        <v>82.97</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A299" s="6"/>
+      <c r="B299" s="6"/>
       <c r="C299" s="4" t="s">
         <v>16</v>
       </c>
@@ -4515,10 +7193,19 @@
       <c r="E299" s="4">
         <v>202.5</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A300" s="5"/>
-      <c r="B300" s="5"/>
+      <c r="F299">
+        <v>22.38</v>
+      </c>
+      <c r="G299">
+        <v>2.86</v>
+      </c>
+      <c r="H299">
+        <v>85.74</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A300" s="6"/>
+      <c r="B300" s="6"/>
       <c r="C300" s="4" t="s">
         <v>17</v>
       </c>
@@ -4528,10 +7215,19 @@
       <c r="E300" s="4">
         <v>217</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A301" s="5"/>
-      <c r="B301" s="5"/>
+      <c r="F300">
+        <v>21.58</v>
+      </c>
+      <c r="G300">
+        <v>2.86</v>
+      </c>
+      <c r="H300">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A301" s="6"/>
+      <c r="B301" s="6"/>
       <c r="C301" s="4" t="s">
         <v>18</v>
       </c>
@@ -4541,10 +7237,19 @@
       <c r="E301" s="4">
         <v>216.5</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A302" s="5"/>
-      <c r="B302" s="5" t="s">
+      <c r="F301">
+        <v>21.25</v>
+      </c>
+      <c r="G301">
+        <v>2.86</v>
+      </c>
+      <c r="H301">
+        <v>90.35</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A302" s="6"/>
+      <c r="B302" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C302" s="4" t="s">
@@ -4556,10 +7261,19 @@
       <c r="E302" s="4">
         <v>238.5</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A303" s="5"/>
-      <c r="B303" s="5"/>
+      <c r="F302">
+        <v>20.81</v>
+      </c>
+      <c r="G302">
+        <v>2.86</v>
+      </c>
+      <c r="H302">
+        <v>93.06</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A303" s="6"/>
+      <c r="B303" s="6"/>
       <c r="C303" s="4" t="s">
         <v>8</v>
       </c>
@@ -4569,10 +7283,19 @@
       <c r="E303" s="4">
         <v>175</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A304" s="5"/>
-      <c r="B304" s="5"/>
+      <c r="F303">
+        <v>21.51</v>
+      </c>
+      <c r="G303">
+        <v>2.86</v>
+      </c>
+      <c r="H303">
+        <v>84.21</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A304" s="6"/>
+      <c r="B304" s="6"/>
       <c r="C304" s="4" t="s">
         <v>9</v>
       </c>
@@ -4582,10 +7305,19 @@
       <c r="E304" s="4">
         <v>316.5</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A305" s="5"/>
-      <c r="B305" s="5"/>
+      <c r="F304">
+        <v>22.55</v>
+      </c>
+      <c r="G304">
+        <v>2.86</v>
+      </c>
+      <c r="H304">
+        <v>83.55</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A305" s="6"/>
+      <c r="B305" s="6"/>
       <c r="C305" s="4" t="s">
         <v>10</v>
       </c>
@@ -4595,10 +7327,19 @@
       <c r="E305" s="4">
         <v>277.5</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A306" s="5"/>
-      <c r="B306" s="5"/>
+      <c r="F305">
+        <v>22.78</v>
+      </c>
+      <c r="G305">
+        <v>2.86</v>
+      </c>
+      <c r="H305">
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A306" s="6"/>
+      <c r="B306" s="6"/>
       <c r="C306" s="4" t="s">
         <v>11</v>
       </c>
@@ -4608,10 +7349,19 @@
       <c r="E306" s="4">
         <v>261</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A307" s="5"/>
-      <c r="B307" s="5"/>
+      <c r="F306">
+        <v>23.18</v>
+      </c>
+      <c r="G306">
+        <v>2.86</v>
+      </c>
+      <c r="H306">
+        <v>87.77</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A307" s="6"/>
+      <c r="B307" s="6"/>
       <c r="C307" s="4" t="s">
         <v>12</v>
       </c>
@@ -4621,10 +7371,19 @@
       <c r="E307" s="4">
         <v>242</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A308" s="5"/>
-      <c r="B308" s="5"/>
+      <c r="F307">
+        <v>22.93</v>
+      </c>
+      <c r="G307">
+        <v>2.86</v>
+      </c>
+      <c r="H307">
+        <v>84.13</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A308" s="6"/>
+      <c r="B308" s="6"/>
       <c r="C308" s="4" t="s">
         <v>13</v>
       </c>
@@ -4634,10 +7393,19 @@
       <c r="E308" s="4">
         <v>238</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A309" s="5"/>
-      <c r="B309" s="5"/>
+      <c r="F308">
+        <v>22.75</v>
+      </c>
+      <c r="G308">
+        <v>2.86</v>
+      </c>
+      <c r="H308">
+        <v>83.61</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A309" s="6"/>
+      <c r="B309" s="6"/>
       <c r="C309" s="4" t="s">
         <v>14</v>
       </c>
@@ -4647,10 +7415,19 @@
       <c r="E309" s="4">
         <v>265</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A310" s="5"/>
-      <c r="B310" s="5"/>
+      <c r="F309">
+        <v>22.64</v>
+      </c>
+      <c r="G309">
+        <v>2.86</v>
+      </c>
+      <c r="H309">
+        <v>82.19</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A310" s="6"/>
+      <c r="B310" s="6"/>
       <c r="C310" s="4" t="s">
         <v>15</v>
       </c>
@@ -4660,10 +7437,19 @@
       <c r="E310" s="4">
         <v>347</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A311" s="5"/>
-      <c r="B311" s="5"/>
+      <c r="F310">
+        <v>22.71</v>
+      </c>
+      <c r="G310">
+        <v>2.86</v>
+      </c>
+      <c r="H310">
+        <v>82.97</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A311" s="6"/>
+      <c r="B311" s="6"/>
       <c r="C311" s="4" t="s">
         <v>16</v>
       </c>
@@ -4673,10 +7459,19 @@
       <c r="E311" s="4">
         <v>218</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A312" s="5"/>
-      <c r="B312" s="5"/>
+      <c r="F311">
+        <v>22.38</v>
+      </c>
+      <c r="G311">
+        <v>2.86</v>
+      </c>
+      <c r="H311">
+        <v>85.74</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A312" s="6"/>
+      <c r="B312" s="6"/>
       <c r="C312" s="4" t="s">
         <v>17</v>
       </c>
@@ -4686,10 +7481,19 @@
       <c r="E312" s="4">
         <v>132</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A313" s="5"/>
-      <c r="B313" s="5"/>
+      <c r="F312">
+        <v>21.58</v>
+      </c>
+      <c r="G312">
+        <v>2.86</v>
+      </c>
+      <c r="H312">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A313" s="6"/>
+      <c r="B313" s="6"/>
       <c r="C313" s="4" t="s">
         <v>18</v>
       </c>
@@ -4699,10 +7503,19 @@
       <c r="E313" s="4">
         <v>153</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A314" s="5"/>
-      <c r="B314" s="5" t="s">
+      <c r="F313">
+        <v>21.25</v>
+      </c>
+      <c r="G313">
+        <v>2.86</v>
+      </c>
+      <c r="H313">
+        <v>90.35</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A314" s="6"/>
+      <c r="B314" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C314" s="4" t="s">
@@ -4714,10 +7527,19 @@
       <c r="E314" s="4">
         <v>387</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A315" s="5"/>
-      <c r="B315" s="5"/>
+      <c r="F314">
+        <v>20.81</v>
+      </c>
+      <c r="G314">
+        <v>2.86</v>
+      </c>
+      <c r="H314">
+        <v>93.06</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A315" s="6"/>
+      <c r="B315" s="6"/>
       <c r="C315" s="4" t="s">
         <v>8</v>
       </c>
@@ -4727,10 +7549,19 @@
       <c r="E315" s="4">
         <v>234.5</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A316" s="5"/>
-      <c r="B316" s="5"/>
+      <c r="F315">
+        <v>21.51</v>
+      </c>
+      <c r="G315">
+        <v>2.86</v>
+      </c>
+      <c r="H315">
+        <v>84.21</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A316" s="6"/>
+      <c r="B316" s="6"/>
       <c r="C316" s="4" t="s">
         <v>9</v>
       </c>
@@ -4740,10 +7571,19 @@
       <c r="E316" s="4">
         <v>497</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A317" s="5"/>
-      <c r="B317" s="5"/>
+      <c r="F316">
+        <v>22.55</v>
+      </c>
+      <c r="G316">
+        <v>2.86</v>
+      </c>
+      <c r="H316">
+        <v>83.55</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A317" s="6"/>
+      <c r="B317" s="6"/>
       <c r="C317" s="4" t="s">
         <v>10</v>
       </c>
@@ -4753,10 +7593,19 @@
       <c r="E317" s="4">
         <v>473.5</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A318" s="5"/>
-      <c r="B318" s="5"/>
+      <c r="F317">
+        <v>22.78</v>
+      </c>
+      <c r="G317">
+        <v>2.86</v>
+      </c>
+      <c r="H317">
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A318" s="6"/>
+      <c r="B318" s="6"/>
       <c r="C318" s="4" t="s">
         <v>11</v>
       </c>
@@ -4766,10 +7615,19 @@
       <c r="E318" s="4">
         <v>493</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A319" s="5"/>
-      <c r="B319" s="5"/>
+      <c r="F318">
+        <v>23.18</v>
+      </c>
+      <c r="G318">
+        <v>2.86</v>
+      </c>
+      <c r="H318">
+        <v>87.77</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A319" s="6"/>
+      <c r="B319" s="6"/>
       <c r="C319" s="4" t="s">
         <v>12</v>
       </c>
@@ -4779,10 +7637,19 @@
       <c r="E319" s="4">
         <v>256.5</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A320" s="5"/>
-      <c r="B320" s="5"/>
+      <c r="F319">
+        <v>22.93</v>
+      </c>
+      <c r="G319">
+        <v>2.86</v>
+      </c>
+      <c r="H319">
+        <v>84.13</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A320" s="6"/>
+      <c r="B320" s="6"/>
       <c r="C320" s="4" t="s">
         <v>13</v>
       </c>
@@ -4792,10 +7659,19 @@
       <c r="E320" s="4">
         <v>339</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A321" s="5"/>
-      <c r="B321" s="5"/>
+      <c r="F320">
+        <v>22.75</v>
+      </c>
+      <c r="G320">
+        <v>2.86</v>
+      </c>
+      <c r="H320">
+        <v>83.61</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A321" s="6"/>
+      <c r="B321" s="6"/>
       <c r="C321" s="4" t="s">
         <v>14</v>
       </c>
@@ -4805,10 +7681,19 @@
       <c r="E321" s="4">
         <v>277.5</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A322" s="5"/>
-      <c r="B322" s="5"/>
+      <c r="F321">
+        <v>22.64</v>
+      </c>
+      <c r="G321">
+        <v>2.86</v>
+      </c>
+      <c r="H321">
+        <v>82.19</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A322" s="6"/>
+      <c r="B322" s="6"/>
       <c r="C322" s="4" t="s">
         <v>15</v>
       </c>
@@ -4818,10 +7703,19 @@
       <c r="E322" s="4">
         <v>478</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A323" s="5"/>
-      <c r="B323" s="5"/>
+      <c r="F322">
+        <v>22.71</v>
+      </c>
+      <c r="G322">
+        <v>2.86</v>
+      </c>
+      <c r="H322">
+        <v>82.97</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A323" s="6"/>
+      <c r="B323" s="6"/>
       <c r="C323" s="4" t="s">
         <v>16</v>
       </c>
@@ -4831,10 +7725,19 @@
       <c r="E323" s="4">
         <v>239</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A324" s="5"/>
-      <c r="B324" s="5"/>
+      <c r="F323">
+        <v>22.38</v>
+      </c>
+      <c r="G323">
+        <v>2.86</v>
+      </c>
+      <c r="H323">
+        <v>85.74</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A324" s="6"/>
+      <c r="B324" s="6"/>
       <c r="C324" s="4" t="s">
         <v>17</v>
       </c>
@@ -4844,10 +7747,19 @@
       <c r="E324" s="4">
         <v>250</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A325" s="5"/>
-      <c r="B325" s="5"/>
+      <c r="F324">
+        <v>21.58</v>
+      </c>
+      <c r="G324">
+        <v>2.86</v>
+      </c>
+      <c r="H324">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A325" s="6"/>
+      <c r="B325" s="6"/>
       <c r="C325" s="4" t="s">
         <v>18</v>
       </c>
@@ -4857,10 +7769,19 @@
       <c r="E325" s="4">
         <v>212</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A326" s="5"/>
-      <c r="B326" s="5" t="s">
+      <c r="F325">
+        <v>21.25</v>
+      </c>
+      <c r="G325">
+        <v>2.86</v>
+      </c>
+      <c r="H325">
+        <v>90.35</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A326" s="6"/>
+      <c r="B326" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C326" s="4" t="s">
@@ -4872,10 +7793,19 @@
       <c r="E326" s="4">
         <v>91</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A327" s="5"/>
-      <c r="B327" s="5"/>
+      <c r="F326">
+        <v>20.81</v>
+      </c>
+      <c r="G326">
+        <v>2.86</v>
+      </c>
+      <c r="H326">
+        <v>93.06</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A327" s="6"/>
+      <c r="B327" s="6"/>
       <c r="C327" s="4" t="s">
         <v>8</v>
       </c>
@@ -4885,10 +7815,19 @@
       <c r="E327" s="4">
         <v>67</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A328" s="5"/>
-      <c r="B328" s="5"/>
+      <c r="F327">
+        <v>21.51</v>
+      </c>
+      <c r="G327">
+        <v>2.86</v>
+      </c>
+      <c r="H327">
+        <v>84.21</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A328" s="6"/>
+      <c r="B328" s="6"/>
       <c r="C328" s="4" t="s">
         <v>9</v>
       </c>
@@ -4898,10 +7837,19 @@
       <c r="E328" s="4">
         <v>149</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A329" s="5"/>
-      <c r="B329" s="5"/>
+      <c r="F328">
+        <v>22.55</v>
+      </c>
+      <c r="G328">
+        <v>2.86</v>
+      </c>
+      <c r="H328">
+        <v>83.55</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A329" s="6"/>
+      <c r="B329" s="6"/>
       <c r="C329" s="4" t="s">
         <v>10</v>
       </c>
@@ -4911,10 +7859,19 @@
       <c r="E329" s="4">
         <v>147</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A330" s="5"/>
-      <c r="B330" s="5"/>
+      <c r="F329">
+        <v>22.78</v>
+      </c>
+      <c r="G329">
+        <v>2.86</v>
+      </c>
+      <c r="H329">
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A330" s="6"/>
+      <c r="B330" s="6"/>
       <c r="C330" s="4" t="s">
         <v>11</v>
       </c>
@@ -4924,10 +7881,19 @@
       <c r="E330" s="4">
         <v>174</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A331" s="5"/>
-      <c r="B331" s="5"/>
+      <c r="F330">
+        <v>23.18</v>
+      </c>
+      <c r="G330">
+        <v>2.86</v>
+      </c>
+      <c r="H330">
+        <v>87.77</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A331" s="6"/>
+      <c r="B331" s="6"/>
       <c r="C331" s="4" t="s">
         <v>12</v>
       </c>
@@ -4937,10 +7903,19 @@
       <c r="E331" s="4">
         <v>81</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A332" s="5"/>
-      <c r="B332" s="5"/>
+      <c r="F331">
+        <v>22.93</v>
+      </c>
+      <c r="G331">
+        <v>2.86</v>
+      </c>
+      <c r="H331">
+        <v>84.13</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A332" s="6"/>
+      <c r="B332" s="6"/>
       <c r="C332" s="4" t="s">
         <v>13</v>
       </c>
@@ -4950,10 +7925,19 @@
       <c r="E332" s="4">
         <v>91</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A333" s="5"/>
-      <c r="B333" s="5"/>
+      <c r="F332">
+        <v>22.75</v>
+      </c>
+      <c r="G332">
+        <v>2.86</v>
+      </c>
+      <c r="H332">
+        <v>83.61</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A333" s="6"/>
+      <c r="B333" s="6"/>
       <c r="C333" s="4" t="s">
         <v>14</v>
       </c>
@@ -4963,10 +7947,19 @@
       <c r="E333" s="4">
         <v>121</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A334" s="5"/>
-      <c r="B334" s="5"/>
+      <c r="F333">
+        <v>22.64</v>
+      </c>
+      <c r="G333">
+        <v>2.86</v>
+      </c>
+      <c r="H333">
+        <v>82.19</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A334" s="6"/>
+      <c r="B334" s="6"/>
       <c r="C334" s="4" t="s">
         <v>15</v>
       </c>
@@ -4976,10 +7969,19 @@
       <c r="E334" s="4">
         <v>216</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A335" s="5"/>
-      <c r="B335" s="5"/>
+      <c r="F334">
+        <v>22.71</v>
+      </c>
+      <c r="G334">
+        <v>2.86</v>
+      </c>
+      <c r="H334">
+        <v>82.97</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A335" s="6"/>
+      <c r="B335" s="6"/>
       <c r="C335" s="4" t="s">
         <v>16</v>
       </c>
@@ -4989,10 +7991,19 @@
       <c r="E335" s="4">
         <v>103</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A336" s="5"/>
-      <c r="B336" s="5"/>
+      <c r="F335">
+        <v>22.38</v>
+      </c>
+      <c r="G335">
+        <v>2.86</v>
+      </c>
+      <c r="H335">
+        <v>85.74</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A336" s="6"/>
+      <c r="B336" s="6"/>
       <c r="C336" s="4" t="s">
         <v>17</v>
       </c>
@@ -5002,10 +8013,19 @@
       <c r="E336" s="4">
         <v>82</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A337" s="5"/>
-      <c r="B337" s="5"/>
+      <c r="F336">
+        <v>21.58</v>
+      </c>
+      <c r="G336">
+        <v>2.86</v>
+      </c>
+      <c r="H336">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A337" s="6"/>
+      <c r="B337" s="6"/>
       <c r="C337" s="4" t="s">
         <v>18</v>
       </c>
@@ -5015,10 +8035,19 @@
       <c r="E337" s="4">
         <v>52</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A338" s="5"/>
-      <c r="B338" s="5" t="s">
+      <c r="F337">
+        <v>21.25</v>
+      </c>
+      <c r="G337">
+        <v>2.86</v>
+      </c>
+      <c r="H337">
+        <v>90.35</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A338" s="6"/>
+      <c r="B338" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C338" s="4" t="s">
@@ -5030,10 +8059,19 @@
       <c r="E338" s="4">
         <v>178</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A339" s="5"/>
-      <c r="B339" s="5"/>
+      <c r="F338">
+        <v>20.81</v>
+      </c>
+      <c r="G338">
+        <v>2.86</v>
+      </c>
+      <c r="H338">
+        <v>93.06</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A339" s="6"/>
+      <c r="B339" s="6"/>
       <c r="C339" s="4" t="s">
         <v>8</v>
       </c>
@@ -5043,10 +8081,19 @@
       <c r="E339" s="4">
         <v>241</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A340" s="5"/>
-      <c r="B340" s="5"/>
+      <c r="F339">
+        <v>21.51</v>
+      </c>
+      <c r="G339">
+        <v>2.86</v>
+      </c>
+      <c r="H339">
+        <v>84.21</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A340" s="6"/>
+      <c r="B340" s="6"/>
       <c r="C340" s="4" t="s">
         <v>9</v>
       </c>
@@ -5056,10 +8103,19 @@
       <c r="E340" s="4">
         <v>351</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A341" s="5"/>
-      <c r="B341" s="5"/>
+      <c r="F340">
+        <v>22.55</v>
+      </c>
+      <c r="G340">
+        <v>2.86</v>
+      </c>
+      <c r="H340">
+        <v>83.55</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A341" s="6"/>
+      <c r="B341" s="6"/>
       <c r="C341" s="4" t="s">
         <v>10</v>
       </c>
@@ -5069,10 +8125,19 @@
       <c r="E341" s="4">
         <v>341</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A342" s="5"/>
-      <c r="B342" s="5"/>
+      <c r="F341">
+        <v>22.78</v>
+      </c>
+      <c r="G341">
+        <v>2.86</v>
+      </c>
+      <c r="H341">
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A342" s="6"/>
+      <c r="B342" s="6"/>
       <c r="C342" s="4" t="s">
         <v>11</v>
       </c>
@@ -5082,10 +8147,19 @@
       <c r="E342" s="4">
         <v>364.5</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A343" s="5"/>
-      <c r="B343" s="5"/>
+      <c r="F342">
+        <v>23.18</v>
+      </c>
+      <c r="G342">
+        <v>2.86</v>
+      </c>
+      <c r="H342">
+        <v>87.77</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A343" s="6"/>
+      <c r="B343" s="6"/>
       <c r="C343" s="4" t="s">
         <v>12</v>
       </c>
@@ -5095,10 +8169,19 @@
       <c r="E343" s="4">
         <v>136</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A344" s="5"/>
-      <c r="B344" s="5"/>
+      <c r="F343">
+        <v>22.93</v>
+      </c>
+      <c r="G343">
+        <v>2.86</v>
+      </c>
+      <c r="H343">
+        <v>84.13</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A344" s="6"/>
+      <c r="B344" s="6"/>
       <c r="C344" s="4" t="s">
         <v>13</v>
       </c>
@@ -5108,10 +8191,19 @@
       <c r="E344" s="4">
         <v>271</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A345" s="5"/>
-      <c r="B345" s="5"/>
+      <c r="F344">
+        <v>22.75</v>
+      </c>
+      <c r="G344">
+        <v>2.86</v>
+      </c>
+      <c r="H344">
+        <v>83.61</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A345" s="6"/>
+      <c r="B345" s="6"/>
       <c r="C345" s="4" t="s">
         <v>14</v>
       </c>
@@ -5121,10 +8213,19 @@
       <c r="E345" s="4">
         <v>170</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A346" s="5"/>
-      <c r="B346" s="5"/>
+      <c r="F345">
+        <v>22.64</v>
+      </c>
+      <c r="G345">
+        <v>2.86</v>
+      </c>
+      <c r="H345">
+        <v>82.19</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A346" s="6"/>
+      <c r="B346" s="6"/>
       <c r="C346" s="4" t="s">
         <v>15</v>
       </c>
@@ -5134,10 +8235,19 @@
       <c r="E346" s="4">
         <v>355</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A347" s="5"/>
-      <c r="B347" s="5"/>
+      <c r="F346">
+        <v>22.71</v>
+      </c>
+      <c r="G346">
+        <v>2.86</v>
+      </c>
+      <c r="H346">
+        <v>82.97</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A347" s="6"/>
+      <c r="B347" s="6"/>
       <c r="C347" s="4" t="s">
         <v>16</v>
       </c>
@@ -5147,10 +8257,19 @@
       <c r="E347" s="4">
         <v>243.5</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A348" s="5"/>
-      <c r="B348" s="5"/>
+      <c r="F347">
+        <v>22.38</v>
+      </c>
+      <c r="G347">
+        <v>2.86</v>
+      </c>
+      <c r="H347">
+        <v>85.74</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A348" s="6"/>
+      <c r="B348" s="6"/>
       <c r="C348" s="4" t="s">
         <v>17</v>
       </c>
@@ -5160,10 +8279,19 @@
       <c r="E348" s="4">
         <v>215</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A349" s="5"/>
-      <c r="B349" s="5"/>
+      <c r="F348">
+        <v>21.58</v>
+      </c>
+      <c r="G348">
+        <v>2.86</v>
+      </c>
+      <c r="H348">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A349" s="6"/>
+      <c r="B349" s="6"/>
       <c r="C349" s="4" t="s">
         <v>18</v>
       </c>
@@ -5173,10 +8301,19 @@
       <c r="E349" s="4">
         <v>282</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A350" s="5"/>
-      <c r="B350" s="5" t="s">
+      <c r="F349">
+        <v>21.25</v>
+      </c>
+      <c r="G349">
+        <v>2.86</v>
+      </c>
+      <c r="H349">
+        <v>90.35</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A350" s="6"/>
+      <c r="B350" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C350" s="4" t="s">
@@ -5188,10 +8325,19 @@
       <c r="E350" s="4">
         <v>68</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A351" s="5"/>
-      <c r="B351" s="5"/>
+      <c r="F350">
+        <v>20.81</v>
+      </c>
+      <c r="G350">
+        <v>2.86</v>
+      </c>
+      <c r="H350">
+        <v>93.06</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A351" s="6"/>
+      <c r="B351" s="6"/>
       <c r="C351" s="4" t="s">
         <v>8</v>
       </c>
@@ -5201,10 +8347,19 @@
       <c r="E351" s="4">
         <v>59.5</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A352" s="5"/>
-      <c r="B352" s="5"/>
+      <c r="F351">
+        <v>21.51</v>
+      </c>
+      <c r="G351">
+        <v>2.86</v>
+      </c>
+      <c r="H351">
+        <v>84.21</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A352" s="6"/>
+      <c r="B352" s="6"/>
       <c r="C352" s="4" t="s">
         <v>9</v>
       </c>
@@ -5214,10 +8369,19 @@
       <c r="E352" s="4">
         <v>78</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A353" s="5"/>
-      <c r="B353" s="5"/>
+      <c r="F352">
+        <v>22.55</v>
+      </c>
+      <c r="G352">
+        <v>2.86</v>
+      </c>
+      <c r="H352">
+        <v>83.55</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A353" s="6"/>
+      <c r="B353" s="6"/>
       <c r="C353" s="4" t="s">
         <v>10</v>
       </c>
@@ -5227,10 +8391,19 @@
       <c r="E353" s="4">
         <v>145</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A354" s="5"/>
-      <c r="B354" s="5"/>
+      <c r="F353">
+        <v>22.78</v>
+      </c>
+      <c r="G353">
+        <v>2.86</v>
+      </c>
+      <c r="H353">
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A354" s="6"/>
+      <c r="B354" s="6"/>
       <c r="C354" s="4" t="s">
         <v>11</v>
       </c>
@@ -5240,10 +8413,19 @@
       <c r="E354" s="4">
         <v>95.5</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A355" s="5"/>
-      <c r="B355" s="5"/>
+      <c r="F354">
+        <v>23.18</v>
+      </c>
+      <c r="G354">
+        <v>2.86</v>
+      </c>
+      <c r="H354">
+        <v>87.77</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A355" s="6"/>
+      <c r="B355" s="6"/>
       <c r="C355" s="4" t="s">
         <v>12</v>
       </c>
@@ -5253,10 +8435,19 @@
       <c r="E355" s="4">
         <v>59</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A356" s="5"/>
-      <c r="B356" s="5"/>
+      <c r="F355">
+        <v>22.93</v>
+      </c>
+      <c r="G355">
+        <v>2.86</v>
+      </c>
+      <c r="H355">
+        <v>84.13</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A356" s="6"/>
+      <c r="B356" s="6"/>
       <c r="C356" s="4" t="s">
         <v>13</v>
       </c>
@@ -5266,10 +8457,19 @@
       <c r="E356" s="4">
         <v>51.5</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A357" s="5"/>
-      <c r="B357" s="5"/>
+      <c r="F356">
+        <v>22.75</v>
+      </c>
+      <c r="G356">
+        <v>2.86</v>
+      </c>
+      <c r="H356">
+        <v>83.61</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A357" s="6"/>
+      <c r="B357" s="6"/>
       <c r="C357" s="4" t="s">
         <v>14</v>
       </c>
@@ -5279,10 +8479,19 @@
       <c r="E357" s="4">
         <v>51</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A358" s="5"/>
-      <c r="B358" s="5"/>
+      <c r="F357">
+        <v>22.64</v>
+      </c>
+      <c r="G357">
+        <v>2.86</v>
+      </c>
+      <c r="H357">
+        <v>82.19</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A358" s="6"/>
+      <c r="B358" s="6"/>
       <c r="C358" s="4" t="s">
         <v>15</v>
       </c>
@@ -5292,10 +8501,19 @@
       <c r="E358" s="4">
         <v>120</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A359" s="5"/>
-      <c r="B359" s="5"/>
+      <c r="F358">
+        <v>22.71</v>
+      </c>
+      <c r="G358">
+        <v>2.86</v>
+      </c>
+      <c r="H358">
+        <v>82.97</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A359" s="6"/>
+      <c r="B359" s="6"/>
       <c r="C359" s="4" t="s">
         <v>16</v>
       </c>
@@ -5305,10 +8523,19 @@
       <c r="E359" s="4">
         <v>97</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A360" s="5"/>
-      <c r="B360" s="5"/>
+      <c r="F359">
+        <v>22.38</v>
+      </c>
+      <c r="G359">
+        <v>2.86</v>
+      </c>
+      <c r="H359">
+        <v>85.74</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A360" s="6"/>
+      <c r="B360" s="6"/>
       <c r="C360" s="4" t="s">
         <v>17</v>
       </c>
@@ -5318,10 +8545,19 @@
       <c r="E360" s="4">
         <v>86</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A361" s="5"/>
-      <c r="B361" s="5"/>
+      <c r="F360">
+        <v>21.58</v>
+      </c>
+      <c r="G360">
+        <v>2.86</v>
+      </c>
+      <c r="H360">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A361" s="6"/>
+      <c r="B361" s="6"/>
       <c r="C361" s="4" t="s">
         <v>18</v>
       </c>
@@ -5331,30 +8567,18 @@
       <c r="E361" s="4">
         <v>79</v>
       </c>
+      <c r="F361">
+        <v>21.25</v>
+      </c>
+      <c r="G361">
+        <v>2.86</v>
+      </c>
+      <c r="H361">
+        <v>90.35</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A290:A361"/>
-    <mergeCell ref="B290:B301"/>
-    <mergeCell ref="B302:B313"/>
-    <mergeCell ref="B314:B325"/>
-    <mergeCell ref="B326:B337"/>
-    <mergeCell ref="B338:B349"/>
-    <mergeCell ref="B350:B361"/>
-    <mergeCell ref="A218:A289"/>
-    <mergeCell ref="B218:B229"/>
-    <mergeCell ref="B230:B241"/>
-    <mergeCell ref="B242:B253"/>
-    <mergeCell ref="B254:B265"/>
-    <mergeCell ref="B266:B277"/>
-    <mergeCell ref="B278:B289"/>
-    <mergeCell ref="A146:A217"/>
-    <mergeCell ref="B146:B157"/>
-    <mergeCell ref="B158:B169"/>
-    <mergeCell ref="B170:B181"/>
-    <mergeCell ref="B182:B193"/>
-    <mergeCell ref="B194:B205"/>
-    <mergeCell ref="B206:B217"/>
     <mergeCell ref="A2:A73"/>
     <mergeCell ref="A74:A145"/>
     <mergeCell ref="B74:B85"/>
@@ -5369,6 +8593,27 @@
     <mergeCell ref="B38:B49"/>
     <mergeCell ref="B50:B61"/>
     <mergeCell ref="B62:B73"/>
+    <mergeCell ref="A146:A217"/>
+    <mergeCell ref="B146:B157"/>
+    <mergeCell ref="B158:B169"/>
+    <mergeCell ref="B170:B181"/>
+    <mergeCell ref="B182:B193"/>
+    <mergeCell ref="B194:B205"/>
+    <mergeCell ref="B206:B217"/>
+    <mergeCell ref="A218:A289"/>
+    <mergeCell ref="B218:B229"/>
+    <mergeCell ref="B230:B241"/>
+    <mergeCell ref="B242:B253"/>
+    <mergeCell ref="B254:B265"/>
+    <mergeCell ref="B266:B277"/>
+    <mergeCell ref="B278:B289"/>
+    <mergeCell ref="A290:A361"/>
+    <mergeCell ref="B290:B301"/>
+    <mergeCell ref="B302:B313"/>
+    <mergeCell ref="B314:B325"/>
+    <mergeCell ref="B326:B337"/>
+    <mergeCell ref="B338:B349"/>
+    <mergeCell ref="B350:B361"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
